--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -451,7 +451,7 @@
     <t>Wood Slab</t>
   </si>
   <si>
-    <t>Cocoa</t>
+    <t>Cocoa Plant</t>
   </si>
   <si>
     <t>Sandstone Stairs</t>

--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -1220,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>

--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="555" windowWidth="19815" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -562,23 +565,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -588,9 +584,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -603,82 +597,377 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="23.43"/>
-    <col min="11" customWidth="1" max="11" width="20.86"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="1" r="B1">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="C2">
-        <v>12</v>
-      </c>
-      <c t="s" r="D2">
-        <v>12</v>
-      </c>
-      <c t="s" r="E2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
@@ -690,24 +979,24 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c t="s" r="I2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="C3">
-        <v>14</v>
-      </c>
-      <c t="s" r="D3">
-        <v>12</v>
-      </c>
-      <c t="s" r="E3">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
@@ -719,24 +1008,24 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c t="s" r="I3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c t="s" r="B4">
-        <v>15</v>
-      </c>
-      <c t="s" r="C4">
-        <v>14</v>
-      </c>
-      <c t="s" r="D4">
-        <v>12</v>
-      </c>
-      <c t="s" r="E4">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4">
@@ -748,24 +1037,24 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c t="s" r="I4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C5">
-        <v>14</v>
-      </c>
-      <c t="s" r="D5">
-        <v>12</v>
-      </c>
-      <c t="s" r="E5">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
@@ -777,24 +1066,24 @@
       <c r="H5">
         <v>2.5</v>
       </c>
-      <c t="s" r="I5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="C6">
-        <v>14</v>
-      </c>
-      <c t="s" r="D6">
-        <v>12</v>
-      </c>
-      <c t="s" r="E6">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6">
@@ -806,24 +1095,24 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c t="s" r="I6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="C7">
-        <v>14</v>
-      </c>
-      <c t="s" r="D7">
-        <v>12</v>
-      </c>
-      <c t="s" r="E7">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
@@ -835,24 +1124,24 @@
       <c r="H7">
         <v>15</v>
       </c>
-      <c t="s" r="I7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="C8">
-        <v>12</v>
-      </c>
-      <c t="s" r="D8">
-        <v>12</v>
-      </c>
-      <c t="s" r="E8">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8">
@@ -864,24 +1153,24 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c t="s" r="I8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="C9">
-        <v>14</v>
-      </c>
-      <c t="s" r="D9">
-        <v>12</v>
-      </c>
-      <c t="s" r="E9">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9">
@@ -893,28 +1182,28 @@
       <c r="H9">
         <v>18000000</v>
       </c>
-      <c t="s" r="I9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c t="s" r="B10">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="C10">
-        <v>12</v>
-      </c>
-      <c t="s" r="D10">
-        <v>12</v>
-      </c>
-      <c t="s" r="E10">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -922,7 +1211,7 @@
       <c r="H10">
         <v>500</v>
       </c>
-      <c t="s" r="I10">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="K10">
@@ -930,24 +1219,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c t="s" r="B11">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="C11">
-        <v>12</v>
-      </c>
-      <c t="s" r="D11">
-        <v>12</v>
-      </c>
-      <c t="s" r="E11">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -955,7 +1244,7 @@
       <c r="H11">
         <v>500</v>
       </c>
-      <c t="s" r="I11">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="K11">
@@ -963,20 +1252,20 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="C12">
-        <v>12</v>
-      </c>
-      <c t="s" r="D12">
-        <v>12</v>
-      </c>
-      <c t="s" r="E12">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12">
@@ -988,28 +1277,28 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c t="s" r="I12">
+      <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="K12">
         <f>1/30</f>
-        <v>0.033333333333333</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="C13">
-        <v>12</v>
-      </c>
-      <c t="s" r="D13">
-        <v>12</v>
-      </c>
-      <c t="s" r="E13">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
@@ -1021,28 +1310,28 @@
       <c r="H13">
         <v>500</v>
       </c>
-      <c t="s" r="I13">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="K13">
         <f>1/30</f>
-        <v>0.033333333333333</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c t="s" r="B14">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C14">
-        <v>14</v>
-      </c>
-      <c t="s" r="D14">
-        <v>14</v>
-      </c>
-      <c t="s" r="E14">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
@@ -1054,24 +1343,24 @@
       <c r="H14">
         <v>2.5</v>
       </c>
-      <c t="s" r="I14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="C15">
-        <v>14</v>
-      </c>
-      <c t="s" r="D15">
-        <v>14</v>
-      </c>
-      <c t="s" r="E15">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
@@ -1083,24 +1372,24 @@
       <c r="H15">
         <v>3</v>
       </c>
-      <c t="s" r="I15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c t="s" r="B16">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="C16">
-        <v>14</v>
-      </c>
-      <c t="s" r="D16">
-        <v>12</v>
-      </c>
-      <c t="s" r="E16">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
@@ -1112,24 +1401,24 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c t="s" r="I16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C17">
-        <v>14</v>
-      </c>
-      <c t="s" r="D17">
-        <v>12</v>
-      </c>
-      <c t="s" r="E17">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17">
@@ -1141,24 +1430,24 @@
       <c r="H17">
         <v>15</v>
       </c>
-      <c t="s" r="I17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c t="s" r="B18">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="C18">
-        <v>14</v>
-      </c>
-      <c t="s" r="D18">
-        <v>12</v>
-      </c>
-      <c t="s" r="E18">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18">
@@ -1170,24 +1459,24 @@
       <c r="H18">
         <v>15</v>
       </c>
-      <c t="s" r="I18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c t="s" r="B19">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="C19">
-        <v>14</v>
-      </c>
-      <c t="s" r="D19">
-        <v>12</v>
-      </c>
-      <c t="s" r="E19">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19">
@@ -1199,24 +1488,24 @@
       <c r="H19">
         <v>10</v>
       </c>
-      <c t="s" r="I19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="C20">
-        <v>14</v>
-      </c>
-      <c t="s" r="D20">
-        <v>12</v>
-      </c>
-      <c t="s" r="E20">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20">
@@ -1228,24 +1517,24 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c t="s" r="I20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="C21">
-        <v>14</v>
-      </c>
-      <c t="s" r="D21">
-        <v>12</v>
-      </c>
-      <c t="s" r="E21">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21">
@@ -1257,24 +1546,24 @@
       <c r="H21">
         <v>3</v>
       </c>
-      <c t="s" r="I21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C22">
-        <v>14</v>
-      </c>
-      <c t="s" r="D22">
-        <v>12</v>
-      </c>
-      <c t="s" r="E22">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22">
@@ -1286,24 +1575,24 @@
       <c r="H22">
         <v>1.5</v>
       </c>
-      <c t="s" r="I22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c t="s" r="B23">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="C23">
-        <v>14</v>
-      </c>
-      <c t="s" r="D23">
-        <v>12</v>
-      </c>
-      <c t="s" r="E23">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23">
@@ -1315,24 +1604,24 @@
       <c r="H23">
         <v>15</v>
       </c>
-      <c t="s" r="I23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c t="s" r="B24">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="C24">
-        <v>14</v>
-      </c>
-      <c t="s" r="D24">
-        <v>12</v>
-      </c>
-      <c t="s" r="E24">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24">
@@ -1344,24 +1633,24 @@
       <c r="H24">
         <v>15</v>
       </c>
-      <c t="s" r="I24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c t="s" r="B25">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="C25">
-        <v>14</v>
-      </c>
-      <c t="s" r="D25">
-        <v>12</v>
-      </c>
-      <c t="s" r="E25">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25">
@@ -1373,27 +1662,27 @@
       <c r="H25">
         <v>17.5</v>
       </c>
-      <c t="s" r="I25">
-        <v>14</v>
-      </c>
-      <c t="s" r="J25">
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="C26">
-        <v>14</v>
-      </c>
-      <c t="s" r="D26">
-        <v>12</v>
-      </c>
-      <c t="s" r="E26">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26">
@@ -1405,24 +1694,24 @@
       <c r="H26">
         <v>4</v>
       </c>
-      <c t="s" r="I26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="C27">
-        <v>14</v>
-      </c>
-      <c t="s" r="D27">
-        <v>12</v>
-      </c>
-      <c t="s" r="E27">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27">
@@ -1434,24 +1723,24 @@
       <c r="H27">
         <v>4</v>
       </c>
-      <c t="s" r="I27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c t="s" r="B28">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C28">
-        <v>14</v>
-      </c>
-      <c t="s" r="D28">
-        <v>12</v>
-      </c>
-      <c t="s" r="E28">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28">
@@ -1463,27 +1752,27 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c t="s" r="I28">
-        <v>12</v>
-      </c>
-      <c t="s" r="J28">
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c t="s" r="B29">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="C29">
-        <v>12</v>
-      </c>
-      <c t="s" r="D29">
-        <v>12</v>
-      </c>
-      <c t="s" r="E29">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29">
@@ -1495,24 +1784,24 @@
       <c r="H29">
         <v>3.5</v>
       </c>
-      <c t="s" r="I29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="C30">
-        <v>12</v>
-      </c>
-      <c t="s" r="D30">
-        <v>12</v>
-      </c>
-      <c t="s" r="E30">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
@@ -1524,24 +1813,24 @@
       <c r="H30">
         <v>3.5</v>
       </c>
-      <c t="s" r="I30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="C31">
-        <v>14</v>
-      </c>
-      <c t="s" r="D31">
-        <v>12</v>
-      </c>
-      <c t="s" r="E31">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
@@ -1553,24 +1842,24 @@
       <c r="H31">
         <v>2.5</v>
       </c>
-      <c t="s" r="I31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="C32">
-        <v>12</v>
-      </c>
-      <c t="s" r="D32">
-        <v>12</v>
-      </c>
-      <c t="s" r="E32">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32">
@@ -1582,24 +1871,24 @@
       <c r="H32">
         <v>20</v>
       </c>
-      <c t="s" r="I32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C33">
-        <v>12</v>
-      </c>
-      <c t="s" r="D33">
-        <v>12</v>
-      </c>
-      <c t="s" r="E33">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33">
@@ -1611,24 +1900,24 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c t="s" r="I33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
-      <c t="s" r="B34">
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="C34">
-        <v>12</v>
-      </c>
-      <c t="s" r="D34">
-        <v>14</v>
-      </c>
-      <c t="s" r="E34">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="F34">
@@ -1640,24 +1929,24 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c t="s" r="I34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="C35">
-        <v>14</v>
-      </c>
-      <c t="s" r="D35">
-        <v>12</v>
-      </c>
-      <c t="s" r="E35">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35">
@@ -1669,24 +1958,24 @@
       <c r="H35">
         <v>2.5</v>
       </c>
-      <c t="s" r="I35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="C36">
-        <v>14</v>
-      </c>
-      <c t="s" r="D36">
-        <v>12</v>
-      </c>
-      <c t="s" r="E36">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36">
@@ -1698,24 +1987,24 @@
       <c r="H36">
         <v>2.5</v>
       </c>
-      <c t="s" r="I36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="C37">
-        <v>14</v>
-      </c>
-      <c t="s" r="D37">
-        <v>12</v>
-      </c>
-      <c t="s" r="E37">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37">
@@ -1727,24 +2016,24 @@
       <c r="H37">
         <v>4</v>
       </c>
-      <c t="s" r="I37">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C38">
-        <v>14</v>
-      </c>
-      <c t="s" r="D38">
-        <v>12</v>
-      </c>
-      <c t="s" r="E38">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
         <v>12</v>
       </c>
       <c r="F38">
@@ -1756,27 +2045,27 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c t="s" r="I38">
-        <v>12</v>
-      </c>
-      <c t="s" r="J38">
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="C39">
-        <v>12</v>
-      </c>
-      <c t="s" r="D39">
-        <v>12</v>
-      </c>
-      <c t="s" r="E39">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39">
@@ -1788,24 +2077,24 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c t="s" r="I39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="C40">
-        <v>12</v>
-      </c>
-      <c t="s" r="D40">
-        <v>12</v>
-      </c>
-      <c t="s" r="E40">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40">
@@ -1817,24 +2106,24 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c t="s" r="I40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="C41">
-        <v>12</v>
-      </c>
-      <c t="s" r="D41">
-        <v>12</v>
-      </c>
-      <c t="s" r="E41">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="F41">
@@ -1846,24 +2135,24 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c t="s" r="I41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
-      <c t="s" r="B42">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="C42">
-        <v>12</v>
-      </c>
-      <c t="s" r="D42">
-        <v>12</v>
-      </c>
-      <c t="s" r="E42">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>12</v>
       </c>
       <c r="F42">
@@ -1875,24 +2164,24 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c t="s" r="I42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
-      <c t="s" r="B43">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="C43">
-        <v>14</v>
-      </c>
-      <c t="s" r="D43">
-        <v>12</v>
-      </c>
-      <c t="s" r="E43">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>12</v>
       </c>
       <c r="F43">
@@ -1904,24 +2193,24 @@
       <c r="H43">
         <v>30</v>
       </c>
-      <c t="s" r="I43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
-      <c t="s" r="B44">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="C44">
-        <v>14</v>
-      </c>
-      <c t="s" r="D44">
-        <v>12</v>
-      </c>
-      <c t="s" r="E44">
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44">
@@ -1933,24 +2222,24 @@
       <c r="H44">
         <v>30</v>
       </c>
-      <c t="s" r="I44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
-      <c t="s" r="B45">
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="C45">
-        <v>14</v>
-      </c>
-      <c t="s" r="D45">
-        <v>12</v>
-      </c>
-      <c t="s" r="E45">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>12</v>
       </c>
       <c r="F45">
@@ -1962,24 +2251,24 @@
       <c r="H45">
         <v>30</v>
       </c>
-      <c t="s" r="I45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
-      <c t="s" r="B46">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="C46">
-        <v>14</v>
-      </c>
-      <c t="s" r="D46">
-        <v>12</v>
-      </c>
-      <c t="s" r="E46">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
         <v>12</v>
       </c>
       <c r="F46">
@@ -1991,24 +2280,24 @@
       <c r="H46">
         <v>30</v>
       </c>
-      <c t="s" r="I46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
-      <c t="s" r="B47">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="C47">
-        <v>14</v>
-      </c>
-      <c t="s" r="D47">
-        <v>12</v>
-      </c>
-      <c t="s" r="E47">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>12</v>
       </c>
       <c r="F47">
@@ -2020,24 +2309,24 @@
       <c r="H47">
         <v>30</v>
       </c>
-      <c t="s" r="I47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
-      <c t="s" r="B48">
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C48">
-        <v>14</v>
-      </c>
-      <c t="s" r="D48">
-        <v>12</v>
-      </c>
-      <c t="s" r="E48">
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48">
@@ -2049,24 +2338,24 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c t="s" r="I48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
-      <c t="s" r="B49">
+      <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="C49">
-        <v>14</v>
-      </c>
-      <c t="s" r="D49">
-        <v>12</v>
-      </c>
-      <c t="s" r="E49">
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49">
@@ -2078,24 +2367,24 @@
       <c r="H49">
         <v>7.5</v>
       </c>
-      <c t="s" r="I49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
-      <c t="s" r="B50">
+      <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="C50">
-        <v>14</v>
-      </c>
-      <c t="s" r="D50">
-        <v>12</v>
-      </c>
-      <c t="s" r="E50">
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50">
@@ -2107,24 +2396,24 @@
       <c r="H50">
         <v>30</v>
       </c>
-      <c t="s" r="I50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
-      <c t="s" r="B51">
+      <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="C51">
-        <v>14</v>
-      </c>
-      <c t="s" r="D51">
-        <v>12</v>
-      </c>
-      <c t="s" r="E51">
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51">
@@ -2136,24 +2425,24 @@
       <c r="H51">
         <v>6000</v>
       </c>
-      <c t="s" r="I51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
-      <c t="s" r="B52">
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="C52">
-        <v>12</v>
-      </c>
-      <c t="s" r="D52">
-        <v>12</v>
-      </c>
-      <c t="s" r="E52">
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="F52">
@@ -2165,24 +2454,24 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c t="s" r="I52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
-      <c t="s" r="B53">
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="C53">
-        <v>12</v>
-      </c>
-      <c t="s" r="D53">
-        <v>12</v>
-      </c>
-      <c t="s" r="E53">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
         <v>12</v>
       </c>
       <c r="F53">
@@ -2194,24 +2483,24 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c t="s" r="I53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
-      <c t="s" r="B54">
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="C54">
-        <v>14</v>
-      </c>
-      <c t="s" r="D54">
-        <v>12</v>
-      </c>
-      <c t="s" r="E54">
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
         <v>12</v>
       </c>
       <c r="F54">
@@ -2223,27 +2512,27 @@
       <c r="H54">
         <v>25</v>
       </c>
-      <c t="s" r="I54">
-        <v>12</v>
-      </c>
-      <c t="s" r="J54">
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
-      <c t="s" r="B55">
+      <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="C55">
-        <v>14</v>
-      </c>
-      <c t="s" r="D55">
-        <v>12</v>
-      </c>
-      <c t="s" r="E55">
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55">
@@ -2255,24 +2544,24 @@
       <c r="H55">
         <v>15</v>
       </c>
-      <c t="s" r="I55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
-      <c t="s" r="B56">
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="C56">
-        <v>14</v>
-      </c>
-      <c t="s" r="D56">
-        <v>12</v>
-      </c>
-      <c t="s" r="E56">
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56">
@@ -2284,27 +2573,27 @@
       <c r="H56">
         <v>12.5</v>
       </c>
-      <c t="s" r="I56">
-        <v>14</v>
-      </c>
-      <c t="s" r="J56">
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
-      <c t="s" r="B57">
+      <c r="B57" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="C57">
-        <v>12</v>
-      </c>
-      <c t="s" r="D57">
-        <v>12</v>
-      </c>
-      <c t="s" r="E57">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
         <v>12</v>
       </c>
       <c r="F57">
@@ -2316,24 +2605,24 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c t="s" r="I57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
-      <c t="s" r="B58">
+      <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="C58">
-        <v>14</v>
-      </c>
-      <c t="s" r="D58">
-        <v>12</v>
-      </c>
-      <c t="s" r="E58">
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
         <v>12</v>
       </c>
       <c r="F58">
@@ -2345,24 +2634,24 @@
       <c r="H58">
         <v>15</v>
       </c>
-      <c t="s" r="I58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
-      <c t="s" r="B59">
+      <c r="B59" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="C59">
-        <v>14</v>
-      </c>
-      <c t="s" r="D59">
-        <v>12</v>
-      </c>
-      <c t="s" r="E59">
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59">
@@ -2374,24 +2663,24 @@
       <c r="H59">
         <v>30</v>
       </c>
-      <c t="s" r="I59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
-      <c t="s" r="B60">
+      <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="C60">
-        <v>14</v>
-      </c>
-      <c t="s" r="D60">
-        <v>12</v>
-      </c>
-      <c t="s" r="E60">
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60">
@@ -2403,24 +2692,24 @@
       <c r="H60">
         <v>12.5</v>
       </c>
-      <c t="s" r="I60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
-      <c t="s" r="B61">
+      <c r="B61" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="C61">
-        <v>12</v>
-      </c>
-      <c t="s" r="D61">
-        <v>12</v>
-      </c>
-      <c t="s" r="E61">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
         <v>12</v>
       </c>
       <c r="F61">
@@ -2432,24 +2721,24 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c t="s" r="I61">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
-      <c t="s" r="B62">
+      <c r="B62" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C62">
-        <v>14</v>
-      </c>
-      <c t="s" r="D62">
-        <v>12</v>
-      </c>
-      <c t="s" r="E62">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>12</v>
       </c>
       <c r="F62">
@@ -2461,24 +2750,24 @@
       <c r="H62">
         <v>3</v>
       </c>
-      <c t="s" r="I62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
-      <c t="s" r="B63">
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="C63">
-        <v>14</v>
-      </c>
-      <c t="s" r="D63">
-        <v>12</v>
-      </c>
-      <c t="s" r="E63">
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
         <v>12</v>
       </c>
       <c r="F63">
@@ -2490,27 +2779,27 @@
       <c r="H63">
         <v>17.5</v>
       </c>
-      <c t="s" r="I63">
-        <v>14</v>
-      </c>
-      <c t="s" r="J63">
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
-      <c t="s" r="B64">
+      <c r="B64" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="C64">
-        <v>14</v>
-      </c>
-      <c t="s" r="D64">
-        <v>12</v>
-      </c>
-      <c t="s" r="E64">
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
         <v>12</v>
       </c>
       <c r="F64">
@@ -2522,27 +2811,27 @@
       <c r="H64">
         <v>17.5</v>
       </c>
-      <c t="s" r="I64">
-        <v>14</v>
-      </c>
-      <c t="s" r="J64">
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
-      <c t="s" r="B65">
+      <c r="B65" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="C65">
-        <v>12</v>
-      </c>
-      <c t="s" r="D65">
-        <v>12</v>
-      </c>
-      <c t="s" r="E65">
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65">
@@ -2554,27 +2843,27 @@
       <c r="H65">
         <v>5</v>
       </c>
-      <c t="s" r="I65">
-        <v>14</v>
-      </c>
-      <c t="s" r="J65">
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
-      <c t="s" r="B66">
+      <c r="B66" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="C66">
-        <v>14</v>
-      </c>
-      <c t="s" r="D66">
-        <v>12</v>
-      </c>
-      <c t="s" r="E66">
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66">
@@ -2586,24 +2875,24 @@
       <c r="H66">
         <v>15</v>
       </c>
-      <c t="s" r="I66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
-      <c t="s" r="B67">
+      <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="C67">
-        <v>14</v>
-      </c>
-      <c t="s" r="D67">
-        <v>12</v>
-      </c>
-      <c t="s" r="E67">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67">
@@ -2615,24 +2904,24 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c t="s" r="I67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
-      <c t="s" r="B68">
+      <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c t="s" r="C68">
-        <v>12</v>
-      </c>
-      <c t="s" r="D68">
-        <v>12</v>
-      </c>
-      <c t="s" r="E68">
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68">
@@ -2644,24 +2933,24 @@
       <c r="H68">
         <v>3.5</v>
       </c>
-      <c t="s" r="I68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
-      <c t="s" r="B69">
+      <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="C69">
-        <v>14</v>
-      </c>
-      <c t="s" r="D69">
-        <v>12</v>
-      </c>
-      <c t="s" r="E69">
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69">
@@ -2673,24 +2962,24 @@
       <c r="H69">
         <v>30</v>
       </c>
-      <c t="s" r="I69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
-      <c t="s" r="B70">
+      <c r="B70" t="s">
         <v>85</v>
       </c>
-      <c t="s" r="C70">
-        <v>12</v>
-      </c>
-      <c t="s" r="D70">
-        <v>12</v>
-      </c>
-      <c t="s" r="E70">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70">
@@ -2702,27 +2991,27 @@
       <c r="H70">
         <v>5</v>
       </c>
-      <c t="s" r="I70">
-        <v>14</v>
-      </c>
-      <c t="s" r="J70">
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
-      <c t="s" r="B71">
+      <c r="B71" t="s">
         <v>86</v>
       </c>
-      <c t="s" r="C71">
-        <v>12</v>
-      </c>
-      <c t="s" r="D71">
-        <v>12</v>
-      </c>
-      <c t="s" r="E71">
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
         <v>12</v>
       </c>
       <c r="F71">
@@ -2734,24 +3023,24 @@
       <c r="H71">
         <v>2.5</v>
       </c>
-      <c t="s" r="I71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
-      <c t="s" r="B72">
+      <c r="B72" t="s">
         <v>87</v>
       </c>
-      <c t="s" r="C72">
-        <v>12</v>
-      </c>
-      <c t="s" r="D72">
-        <v>12</v>
-      </c>
-      <c t="s" r="E72">
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72">
@@ -2763,24 +3052,24 @@
       <c r="H72">
         <v>2.5</v>
       </c>
-      <c t="s" r="I72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
-      <c t="s" r="B73">
+      <c r="B73" t="s">
         <v>88</v>
       </c>
-      <c t="s" r="C73">
-        <v>14</v>
-      </c>
-      <c t="s" r="D73">
-        <v>12</v>
-      </c>
-      <c t="s" r="E73">
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
         <v>12</v>
       </c>
       <c r="F73">
@@ -2792,24 +3081,24 @@
       <c r="H73">
         <v>25</v>
       </c>
-      <c t="s" r="I73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
-      <c t="s" r="B74">
+      <c r="B74" t="s">
         <v>89</v>
       </c>
-      <c t="s" r="C74">
-        <v>12</v>
-      </c>
-      <c t="s" r="D74">
-        <v>12</v>
-      </c>
-      <c t="s" r="E74">
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74">
@@ -2821,24 +3110,24 @@
       <c r="H74">
         <v>2.5</v>
       </c>
-      <c t="s" r="I74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
-      <c t="s" r="B75">
+      <c r="B75" t="s">
         <v>90</v>
       </c>
-      <c t="s" r="C75">
-        <v>14</v>
-      </c>
-      <c t="s" r="D75">
-        <v>12</v>
-      </c>
-      <c t="s" r="E75">
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75">
@@ -2850,24 +3139,24 @@
       <c r="H75">
         <v>15</v>
       </c>
-      <c t="s" r="I75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
-      <c t="s" r="B76">
+      <c r="B76" t="s">
         <v>91</v>
       </c>
-      <c t="s" r="C76">
-        <v>14</v>
-      </c>
-      <c t="s" r="D76">
-        <v>12</v>
-      </c>
-      <c t="s" r="E76">
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
         <v>12</v>
       </c>
       <c r="F76">
@@ -2879,24 +3168,24 @@
       <c r="H76">
         <v>15</v>
       </c>
-      <c t="s" r="I76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
-      <c t="s" r="B77">
+      <c r="B77" t="s">
         <v>92</v>
       </c>
-      <c t="s" r="C77">
-        <v>12</v>
-      </c>
-      <c t="s" r="D77">
-        <v>12</v>
-      </c>
-      <c t="s" r="E77">
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
         <v>12</v>
       </c>
       <c r="F77">
@@ -2908,24 +3197,24 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c t="s" r="I77">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
-      <c t="s" r="B78">
+      <c r="B78" t="s">
         <v>93</v>
       </c>
-      <c t="s" r="C78">
-        <v>12</v>
-      </c>
-      <c t="s" r="D78">
-        <v>12</v>
-      </c>
-      <c t="s" r="E78">
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
         <v>12</v>
       </c>
       <c r="F78">
@@ -2937,24 +3226,24 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c t="s" r="I78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
-      <c t="s" r="B79">
+      <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="C79">
-        <v>12</v>
-      </c>
-      <c t="s" r="D79">
-        <v>12</v>
-      </c>
-      <c t="s" r="E79">
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
         <v>12</v>
       </c>
       <c r="F79">
@@ -2966,24 +3255,24 @@
       <c r="H79">
         <v>2.5</v>
       </c>
-      <c t="s" r="I79">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
-      <c t="s" r="B80">
+      <c r="B80" t="s">
         <v>95</v>
       </c>
-      <c t="s" r="C80">
-        <v>14</v>
-      </c>
-      <c t="s" r="D80">
-        <v>12</v>
-      </c>
-      <c t="s" r="E80">
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80">
@@ -2995,24 +3284,24 @@
       <c r="H80">
         <v>0.5</v>
       </c>
-      <c t="s" r="I80">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
-      <c t="s" r="B81">
+      <c r="B81" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="C81">
-        <v>14</v>
-      </c>
-      <c t="s" r="D81">
-        <v>12</v>
-      </c>
-      <c t="s" r="E81">
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
         <v>12</v>
       </c>
       <c r="F81">
@@ -3024,24 +3313,24 @@
       <c r="H81">
         <v>2.5</v>
       </c>
-      <c t="s" r="I81">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
-      <c t="s" r="B82">
+      <c r="B82" t="s">
         <v>97</v>
       </c>
-      <c t="s" r="C82">
-        <v>14</v>
-      </c>
-      <c t="s" r="D82">
-        <v>12</v>
-      </c>
-      <c t="s" r="E82">
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
         <v>12</v>
       </c>
       <c r="F82">
@@ -3053,24 +3342,24 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c t="s" r="I82">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
-      <c t="s" r="B83">
+      <c r="B83" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="C83">
-        <v>14</v>
-      </c>
-      <c t="s" r="D83">
-        <v>12</v>
-      </c>
-      <c t="s" r="E83">
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
         <v>12</v>
       </c>
       <c r="F83">
@@ -3082,24 +3371,24 @@
       <c r="H83">
         <v>2</v>
       </c>
-      <c t="s" r="I83">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
-      <c t="s" r="B84">
+      <c r="B84" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="C84">
-        <v>14</v>
-      </c>
-      <c t="s" r="D84">
-        <v>12</v>
-      </c>
-      <c t="s" r="E84">
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
         <v>12</v>
       </c>
       <c r="F84">
@@ -3111,24 +3400,24 @@
       <c r="H84">
         <v>3</v>
       </c>
-      <c t="s" r="I84">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
-      <c t="s" r="B85">
+      <c r="B85" t="s">
         <v>100</v>
       </c>
-      <c t="s" r="C85">
-        <v>12</v>
-      </c>
-      <c t="s" r="D85">
-        <v>12</v>
-      </c>
-      <c t="s" r="E85">
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
         <v>12</v>
       </c>
       <c r="F85">
@@ -3140,24 +3429,24 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c t="s" r="I85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
-      <c t="s" r="B86">
+      <c r="B86" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C86">
-        <v>14</v>
-      </c>
-      <c t="s" r="D86">
-        <v>12</v>
-      </c>
-      <c t="s" r="E86">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86">
@@ -3169,27 +3458,27 @@
       <c r="H86">
         <v>30</v>
       </c>
-      <c t="s" r="I86">
-        <v>14</v>
-      </c>
-      <c t="s" r="J86">
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
-      <c t="s" r="B87">
+      <c r="B87" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="C87">
-        <v>14</v>
-      </c>
-      <c t="s" r="D87">
-        <v>12</v>
-      </c>
-      <c t="s" r="E87">
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87">
@@ -3201,24 +3490,24 @@
       <c r="H87">
         <v>15</v>
       </c>
-      <c t="s" r="I87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
-      <c t="s" r="B88">
+      <c r="B88" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="C88">
-        <v>14</v>
-      </c>
-      <c t="s" r="D88">
-        <v>12</v>
-      </c>
-      <c t="s" r="E88">
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
         <v>12</v>
       </c>
       <c r="F88">
@@ -3230,24 +3519,24 @@
       <c r="H88">
         <v>5</v>
       </c>
-      <c t="s" r="I88">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
-      <c t="s" r="B89">
+      <c r="B89" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="C89">
-        <v>14</v>
-      </c>
-      <c t="s" r="D89">
-        <v>12</v>
-      </c>
-      <c t="s" r="E89">
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89">
@@ -3259,24 +3548,24 @@
       <c r="H89">
         <v>2</v>
       </c>
-      <c t="s" r="I89">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
-      <c t="s" r="B90">
+      <c r="B90" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="C90">
-        <v>14</v>
-      </c>
-      <c t="s" r="D90">
-        <v>12</v>
-      </c>
-      <c t="s" r="E90">
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
         <v>12</v>
       </c>
       <c r="F90">
@@ -3288,24 +3577,24 @@
       <c r="H90">
         <v>2.5</v>
       </c>
-      <c t="s" r="I90">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
-      <c t="s" r="B91">
+      <c r="B91" t="s">
         <v>107</v>
       </c>
-      <c t="s" r="C91">
-        <v>14</v>
-      </c>
-      <c t="s" r="D91">
-        <v>12</v>
-      </c>
-      <c t="s" r="E91">
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91">
@@ -3317,24 +3606,24 @@
       <c r="H91">
         <v>1.5</v>
       </c>
-      <c t="s" r="I91">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
-      <c t="s" r="B92">
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="C92">
-        <v>12</v>
-      </c>
-      <c t="s" r="D92">
-        <v>12</v>
-      </c>
-      <c t="s" r="E92">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92">
@@ -3346,24 +3635,24 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c t="s" r="I92">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
-      <c t="s" r="B93">
+      <c r="B93" t="s">
         <v>109</v>
       </c>
-      <c t="s" r="C93">
-        <v>14</v>
-      </c>
-      <c t="s" r="D93">
-        <v>12</v>
-      </c>
-      <c t="s" r="E93">
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
         <v>12</v>
       </c>
       <c r="F93">
@@ -3375,24 +3664,24 @@
       <c r="H93">
         <v>5</v>
       </c>
-      <c t="s" r="I93">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
-      <c t="s" r="B94">
+      <c r="B94" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="C94">
-        <v>14</v>
-      </c>
-      <c t="s" r="D94">
-        <v>12</v>
-      </c>
-      <c t="s" r="E94">
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
         <v>12</v>
       </c>
       <c r="F94">
@@ -3404,24 +3693,24 @@
       <c r="H94">
         <v>2.5</v>
       </c>
-      <c t="s" r="I94">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
-      <c t="s" r="B95">
+      <c r="B95" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="C95">
-        <v>14</v>
-      </c>
-      <c t="s" r="D95">
-        <v>12</v>
-      </c>
-      <c t="s" r="E95">
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
         <v>12</v>
       </c>
       <c r="F95">
@@ -3433,24 +3722,24 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c t="s" r="I95">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
-      <c t="s" r="B96">
+      <c r="B96" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="C96">
-        <v>14</v>
-      </c>
-      <c t="s" r="D96">
-        <v>12</v>
-      </c>
-      <c t="s" r="E96">
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
         <v>12</v>
       </c>
       <c r="F96">
@@ -3462,24 +3751,24 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c t="s" r="I96">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
-      <c t="s" r="B97">
+      <c r="B97" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="C97">
-        <v>14</v>
-      </c>
-      <c t="s" r="D97">
-        <v>12</v>
-      </c>
-      <c t="s" r="E97">
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97">
@@ -3491,24 +3780,24 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c t="s" r="I97">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
-      <c t="s" r="B98">
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="C98">
-        <v>14</v>
-      </c>
-      <c t="s" r="D98">
-        <v>12</v>
-      </c>
-      <c t="s" r="E98">
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98">
@@ -3520,24 +3809,24 @@
       <c r="H98">
         <v>15</v>
       </c>
-      <c t="s" r="I98">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
-      <c t="s" r="B99">
+      <c r="B99" t="s">
         <v>115</v>
       </c>
-      <c t="s" r="C99">
-        <v>14</v>
-      </c>
-      <c t="s" r="D99">
-        <v>12</v>
-      </c>
-      <c t="s" r="E99">
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
         <v>12</v>
       </c>
       <c r="F99">
@@ -3549,24 +3838,24 @@
       <c r="H99">
         <v>3.75</v>
       </c>
-      <c t="s" r="I99">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
-      <c t="s" r="B100">
+      <c r="B100" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="C100">
-        <v>14</v>
-      </c>
-      <c t="s" r="D100">
-        <v>12</v>
-      </c>
-      <c t="s" r="E100">
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
         <v>12</v>
       </c>
       <c r="F100">
@@ -3578,24 +3867,24 @@
       <c r="H100">
         <v>30</v>
       </c>
-      <c t="s" r="I100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
-      <c t="s" r="B101">
+      <c r="B101" t="s">
         <v>117</v>
       </c>
-      <c t="s" r="C101">
-        <v>14</v>
-      </c>
-      <c t="s" r="D101">
-        <v>12</v>
-      </c>
-      <c t="s" r="E101">
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101">
@@ -3607,24 +3896,24 @@
       <c r="H101">
         <v>1</v>
       </c>
-      <c t="s" r="I101">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
-      <c t="s" r="B102">
+      <c r="B102" t="s">
         <v>118</v>
       </c>
-      <c t="s" r="C102">
-        <v>14</v>
-      </c>
-      <c t="s" r="D102">
-        <v>12</v>
-      </c>
-      <c t="s" r="E102">
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102">
@@ -3636,24 +3925,24 @@
       <c r="H102">
         <v>1</v>
       </c>
-      <c t="s" r="I102">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
-      <c t="s" r="B103">
+      <c r="B103" t="s">
         <v>119</v>
       </c>
-      <c t="s" r="C103">
-        <v>14</v>
-      </c>
-      <c t="s" r="D103">
-        <v>12</v>
-      </c>
-      <c t="s" r="E103">
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
         <v>12</v>
       </c>
       <c r="F103">
@@ -3665,24 +3954,24 @@
       <c r="H103">
         <v>30</v>
       </c>
-      <c t="s" r="I103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
-      <c t="s" r="B104">
+      <c r="B104" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C104">
-        <v>14</v>
-      </c>
-      <c t="s" r="D104">
-        <v>12</v>
-      </c>
-      <c t="s" r="E104">
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104">
@@ -3694,24 +3983,24 @@
       <c r="H104">
         <v>1.5</v>
       </c>
-      <c t="s" r="I104">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
-      <c t="s" r="B105">
+      <c r="B105" t="s">
         <v>121</v>
       </c>
-      <c t="s" r="C105">
-        <v>14</v>
-      </c>
-      <c t="s" r="D105">
-        <v>12</v>
-      </c>
-      <c t="s" r="E105">
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105">
@@ -3723,24 +4012,24 @@
       <c r="H105">
         <v>5</v>
       </c>
-      <c t="s" r="I105">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
-      <c t="s" r="B106">
+      <c r="B106" t="s">
         <v>122</v>
       </c>
-      <c t="s" r="C106">
-        <v>12</v>
-      </c>
-      <c t="s" r="D106">
-        <v>12</v>
-      </c>
-      <c t="s" r="E106">
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106">
@@ -3752,24 +4041,24 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c t="s" r="I106">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
-      <c t="s" r="B107">
+      <c r="B107" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="C107">
-        <v>12</v>
-      </c>
-      <c t="s" r="D107">
-        <v>12</v>
-      </c>
-      <c t="s" r="E107">
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
         <v>12</v>
       </c>
       <c r="F107">
@@ -3781,24 +4070,24 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c t="s" r="I107">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
-      <c t="s" r="B108">
+      <c r="B108" t="s">
         <v>124</v>
       </c>
-      <c t="s" r="C108">
-        <v>12</v>
-      </c>
-      <c t="s" r="D108">
-        <v>12</v>
-      </c>
-      <c t="s" r="E108">
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108">
@@ -3810,24 +4099,24 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c t="s" r="I108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
-      <c t="s" r="B109">
+      <c r="B109" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="C109">
-        <v>14</v>
-      </c>
-      <c t="s" r="D109">
-        <v>12</v>
-      </c>
-      <c t="s" r="E109">
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109">
@@ -3839,24 +4128,24 @@
       <c r="H109">
         <v>15</v>
       </c>
-      <c t="s" r="I109">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
-      <c t="s" r="B110">
+      <c r="B110" t="s">
         <v>126</v>
       </c>
-      <c t="s" r="C110">
-        <v>14</v>
-      </c>
-      <c t="s" r="D110">
-        <v>12</v>
-      </c>
-      <c t="s" r="E110">
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
         <v>12</v>
       </c>
       <c r="F110">
@@ -3868,24 +4157,24 @@
       <c r="H110">
         <v>30</v>
       </c>
-      <c t="s" r="I110">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
-      <c t="s" r="B111">
+      <c r="B111" t="s">
         <v>127</v>
       </c>
-      <c t="s" r="C111">
-        <v>14</v>
-      </c>
-      <c t="s" r="D111">
-        <v>12</v>
-      </c>
-      <c t="s" r="E111">
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
         <v>12</v>
       </c>
       <c r="F111">
@@ -3897,24 +4186,24 @@
       <c r="H111">
         <v>30</v>
       </c>
-      <c t="s" r="I111">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
-      <c t="s" r="B112">
+      <c r="B112" t="s">
         <v>128</v>
       </c>
-      <c t="s" r="C112">
-        <v>14</v>
-      </c>
-      <c t="s" r="D112">
-        <v>12</v>
-      </c>
-      <c t="s" r="E112">
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
         <v>12</v>
       </c>
       <c r="F112">
@@ -3926,24 +4215,24 @@
       <c r="H112">
         <v>2.5</v>
       </c>
-      <c t="s" r="I112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
-      <c t="s" r="B113">
+      <c r="B113" t="s">
         <v>129</v>
       </c>
-      <c t="s" r="C113">
-        <v>14</v>
-      </c>
-      <c t="s" r="D113">
-        <v>12</v>
-      </c>
-      <c t="s" r="E113">
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
         <v>12</v>
       </c>
       <c r="F113">
@@ -3955,24 +4244,24 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c t="s" r="I113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
-      <c t="s" r="B114">
+      <c r="B114" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="C114">
-        <v>14</v>
-      </c>
-      <c t="s" r="D114">
-        <v>12</v>
-      </c>
-      <c t="s" r="E114">
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
         <v>12</v>
       </c>
       <c r="F114">
@@ -3984,24 +4273,24 @@
       <c r="H114">
         <v>30</v>
       </c>
-      <c t="s" r="I114">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
-      <c t="s" r="B115">
+      <c r="B115" t="s">
         <v>131</v>
       </c>
-      <c t="s" r="C115">
-        <v>14</v>
-      </c>
-      <c t="s" r="D115">
-        <v>12</v>
-      </c>
-      <c t="s" r="E115">
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
         <v>12</v>
       </c>
       <c r="F115">
@@ -4013,24 +4302,24 @@
       <c r="H115">
         <v>30</v>
       </c>
-      <c t="s" r="I115">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
-      <c t="s" r="B116">
+      <c r="B116" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="C116">
-        <v>14</v>
-      </c>
-      <c t="s" r="D116">
-        <v>12</v>
-      </c>
-      <c t="s" r="E116">
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
         <v>12</v>
       </c>
       <c r="F116">
@@ -4042,24 +4331,24 @@
       <c r="H116">
         <v>30</v>
       </c>
-      <c t="s" r="I116">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
-      <c t="s" r="B117">
+      <c r="B117" t="s">
         <v>133</v>
       </c>
-      <c t="s" r="C117">
-        <v>12</v>
-      </c>
-      <c t="s" r="D117">
-        <v>12</v>
-      </c>
-      <c t="s" r="E117">
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
         <v>12</v>
       </c>
       <c r="F117">
@@ -4071,24 +4360,24 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c t="s" r="I117">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
-      <c t="s" r="B118">
+      <c r="B118" t="s">
         <v>134</v>
       </c>
-      <c t="s" r="C118">
-        <v>14</v>
-      </c>
-      <c t="s" r="D118">
-        <v>12</v>
-      </c>
-      <c t="s" r="E118">
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
         <v>12</v>
       </c>
       <c r="F118">
@@ -4100,27 +4389,27 @@
       <c r="H118">
         <v>6000</v>
       </c>
-      <c t="s" r="I118">
-        <v>12</v>
-      </c>
-      <c t="s" r="J118">
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
-      <c t="s" r="B119">
+      <c r="B119" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="C119">
-        <v>14</v>
-      </c>
-      <c t="s" r="D119">
-        <v>12</v>
-      </c>
-      <c t="s" r="E119">
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="F119">
@@ -4132,27 +4421,27 @@
       <c r="H119">
         <v>2.5</v>
       </c>
-      <c t="s" r="I119">
-        <v>14</v>
-      </c>
-      <c t="s" r="J119">
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
-      <c t="s" r="B120">
+      <c r="B120" t="s">
         <v>137</v>
       </c>
-      <c t="s" r="C120">
-        <v>14</v>
-      </c>
-      <c t="s" r="D120">
-        <v>12</v>
-      </c>
-      <c t="s" r="E120">
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
         <v>12</v>
       </c>
       <c r="F120">
@@ -4164,24 +4453,24 @@
       <c r="H120">
         <v>10</v>
       </c>
-      <c t="s" r="I120">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
-      <c t="s" r="B121">
+      <c r="B121" t="s">
         <v>138</v>
       </c>
-      <c t="s" r="C121">
-        <v>12</v>
-      </c>
-      <c t="s" r="D121">
-        <v>12</v>
-      </c>
-      <c t="s" r="E121">
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
         <v>12</v>
       </c>
       <c r="F121">
@@ -4193,24 +4482,24 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c t="s" r="I121">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
-      <c t="s" r="B122">
+      <c r="B122" t="s">
         <v>139</v>
       </c>
-      <c t="s" r="C122">
-        <v>14</v>
-      </c>
-      <c t="s" r="D122">
-        <v>12</v>
-      </c>
-      <c t="s" r="E122">
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
         <v>12</v>
       </c>
       <c r="F122">
@@ -4222,24 +4511,24 @@
       <c r="H122">
         <v>18000000</v>
       </c>
-      <c t="s" r="I122">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
-      <c t="s" r="B123">
+      <c r="B123" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="C123">
-        <v>14</v>
-      </c>
-      <c t="s" r="D123">
-        <v>12</v>
-      </c>
-      <c t="s" r="E123">
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
         <v>12</v>
       </c>
       <c r="F123">
@@ -4251,24 +4540,24 @@
       <c r="H123">
         <v>45</v>
       </c>
-      <c t="s" r="I123">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
-      <c t="s" r="B124">
+      <c r="B124" t="s">
         <v>141</v>
       </c>
-      <c t="s" r="C124">
-        <v>14</v>
-      </c>
-      <c t="s" r="D124">
-        <v>14</v>
-      </c>
-      <c t="s" r="E124">
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
         <v>12</v>
       </c>
       <c r="F124">
@@ -4280,24 +4569,24 @@
       <c r="H124">
         <v>45</v>
       </c>
-      <c t="s" r="I124">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
-      <c t="s" r="B125">
+      <c r="B125" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="C125">
-        <v>14</v>
-      </c>
-      <c t="s" r="D125">
-        <v>12</v>
-      </c>
-      <c t="s" r="E125">
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
         <v>12</v>
       </c>
       <c r="F125">
@@ -4309,24 +4598,24 @@
       <c r="H125">
         <v>1.5</v>
       </c>
-      <c t="s" r="I125">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
-      <c t="s" r="B126">
+      <c r="B126" t="s">
         <v>143</v>
       </c>
-      <c t="s" r="C126">
-        <v>14</v>
-      </c>
-      <c t="s" r="D126">
-        <v>12</v>
-      </c>
-      <c t="s" r="E126">
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
         <v>12</v>
       </c>
       <c r="F126">
@@ -4338,24 +4627,24 @@
       <c r="H126">
         <v>1.5</v>
       </c>
-      <c t="s" r="I126">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
-      <c t="s" r="B127">
+      <c r="B127" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="C127">
-        <v>14</v>
-      </c>
-      <c t="s" r="D127">
-        <v>12</v>
-      </c>
-      <c t="s" r="E127">
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127">
@@ -4367,24 +4656,24 @@
       <c r="H127">
         <v>15</v>
       </c>
-      <c t="s" r="I127">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
-      <c t="s" r="B128">
+      <c r="B128" t="s">
         <v>145</v>
       </c>
-      <c t="s" r="C128">
-        <v>14</v>
-      </c>
-      <c t="s" r="D128">
-        <v>12</v>
-      </c>
-      <c t="s" r="E128">
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128">
@@ -4396,24 +4685,24 @@
       <c r="H128">
         <v>15</v>
       </c>
-      <c t="s" r="I128">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
-      <c t="s" r="B129">
+      <c r="B129" t="s">
         <v>146</v>
       </c>
-      <c t="s" r="C129">
-        <v>14</v>
-      </c>
-      <c t="s" r="D129">
-        <v>12</v>
-      </c>
-      <c t="s" r="E129">
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
         <v>12</v>
       </c>
       <c r="F129">
@@ -4425,24 +4714,24 @@
       <c r="H129">
         <v>15</v>
       </c>
-      <c t="s" r="I129">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
-      <c t="s" r="B130">
+      <c r="B130" t="s">
         <v>147</v>
       </c>
-      <c t="s" r="C130">
-        <v>14</v>
-      </c>
-      <c t="s" r="D130">
-        <v>12</v>
-      </c>
-      <c t="s" r="E130">
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
         <v>12</v>
       </c>
       <c r="F130">
@@ -4454,24 +4743,24 @@
       <c r="H130">
         <v>30</v>
       </c>
-      <c t="s" r="I130">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
-      <c t="s" r="B131">
+      <c r="B131" t="s">
         <v>148</v>
       </c>
-      <c t="s" r="C131">
-        <v>14</v>
-      </c>
-      <c t="s" r="D131">
-        <v>12</v>
-      </c>
-      <c t="s" r="E131">
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
         <v>12</v>
       </c>
       <c r="F131">
@@ -4483,24 +4772,24 @@
       <c r="H131">
         <v>15</v>
       </c>
-      <c t="s" r="I131">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
-      <c t="s" r="B132">
+      <c r="B132" t="s">
         <v>149</v>
       </c>
-      <c t="s" r="C132">
-        <v>14</v>
-      </c>
-      <c t="s" r="D132">
-        <v>12</v>
-      </c>
-      <c t="s" r="E132">
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
         <v>12</v>
       </c>
       <c r="F132">
@@ -4512,27 +4801,27 @@
       <c r="H132">
         <v>3000</v>
       </c>
-      <c t="s" r="I132">
-        <v>14</v>
-      </c>
-      <c t="s" r="J132">
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
-      <c t="s" r="B133">
+      <c r="B133" t="s">
         <v>151</v>
       </c>
-      <c t="s" r="C133">
-        <v>12</v>
-      </c>
-      <c t="s" r="D133">
-        <v>12</v>
-      </c>
-      <c t="s" r="E133">
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
         <v>12</v>
       </c>
       <c r="F133">
@@ -4544,24 +4833,24 @@
       <c r="H133">
         <v>2.5</v>
       </c>
-      <c t="s" r="I133">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
-      <c t="s" r="B134">
+      <c r="B134" t="s">
         <v>152</v>
       </c>
-      <c t="s" r="C134">
-        <v>12</v>
-      </c>
-      <c t="s" r="D134">
-        <v>12</v>
-      </c>
-      <c t="s" r="E134">
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
         <v>12</v>
       </c>
       <c r="F134">
@@ -4573,24 +4862,24 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c t="s" r="I134">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
-      <c t="s" r="B135">
+      <c r="B135" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="C135">
-        <v>14</v>
-      </c>
-      <c t="s" r="D135">
-        <v>12</v>
-      </c>
-      <c t="s" r="E135">
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
         <v>12</v>
       </c>
       <c r="F135">
@@ -4602,24 +4891,24 @@
       <c r="H135">
         <v>30</v>
       </c>
-      <c t="s" r="I135">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
-      <c t="s" r="B136">
+      <c r="B136" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="C136">
-        <v>14</v>
-      </c>
-      <c t="s" r="D136">
-        <v>12</v>
-      </c>
-      <c t="s" r="E136">
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136">
@@ -4631,24 +4920,24 @@
       <c r="H136">
         <v>15</v>
       </c>
-      <c t="s" r="I136">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
-      <c t="s" r="B137">
+      <c r="B137" t="s">
         <v>155</v>
       </c>
-      <c t="s" r="C137">
-        <v>14</v>
-      </c>
-      <c t="s" r="D137">
-        <v>12</v>
-      </c>
-      <c t="s" r="E137">
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
         <v>14</v>
       </c>
       <c r="F137">
@@ -4660,24 +4949,24 @@
       <c r="H137">
         <v>15</v>
       </c>
-      <c t="s" r="I137">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
-      <c t="s" r="B138">
+      <c r="B138" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="C138">
-        <v>14</v>
-      </c>
-      <c t="s" r="D138">
-        <v>12</v>
-      </c>
-      <c t="s" r="E138">
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138">
@@ -4689,24 +4978,24 @@
       <c r="H138">
         <v>15</v>
       </c>
-      <c t="s" r="I138">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
-      <c t="s" r="B139">
+      <c r="B139" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="C139">
-        <v>14</v>
-      </c>
-      <c t="s" r="D139">
-        <v>12</v>
-      </c>
-      <c t="s" r="E139">
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
         <v>12</v>
       </c>
       <c r="F139">
@@ -4718,27 +5007,27 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c t="s" r="I139">
-        <v>12</v>
-      </c>
-      <c t="s" r="J139">
+      <c r="I139" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
-      <c t="s" r="B140">
+      <c r="B140" t="s">
         <v>159</v>
       </c>
-      <c t="s" r="C140">
-        <v>14</v>
-      </c>
-      <c t="s" r="D140">
-        <v>12</v>
-      </c>
-      <c t="s" r="E140">
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
         <v>12</v>
       </c>
       <c r="F140">
@@ -4750,27 +5039,27 @@
       <c r="H140">
         <v>15</v>
       </c>
-      <c t="s" r="I140">
-        <v>12</v>
-      </c>
-      <c t="s" r="J140">
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
-      <c t="s" r="B141">
+      <c r="B141" t="s">
         <v>160</v>
       </c>
-      <c t="s" r="C141">
-        <v>14</v>
-      </c>
-      <c t="s" r="D141">
-        <v>12</v>
-      </c>
-      <c t="s" r="E141">
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
         <v>12</v>
       </c>
       <c r="F141">
@@ -4782,24 +5071,24 @@
       <c r="H141">
         <v>30</v>
       </c>
-      <c t="s" r="I141">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
-      <c t="s" r="B142">
+      <c r="B142" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="C142">
-        <v>14</v>
-      </c>
-      <c t="s" r="D142">
-        <v>12</v>
-      </c>
-      <c t="s" r="E142">
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
         <v>12</v>
       </c>
       <c r="F142">
@@ -4811,24 +5100,24 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c t="s" r="I142">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
-      <c t="s" r="B143">
+      <c r="B143" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="C143">
-        <v>12</v>
-      </c>
-      <c t="s" r="D143">
-        <v>12</v>
-      </c>
-      <c t="s" r="E143">
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
         <v>12</v>
       </c>
       <c r="F143">
@@ -4840,24 +5129,24 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c t="s" r="I143">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
-      <c t="s" r="B144">
+      <c r="B144" t="s">
         <v>163</v>
       </c>
-      <c t="s" r="C144">
-        <v>12</v>
-      </c>
-      <c t="s" r="D144">
-        <v>12</v>
-      </c>
-      <c t="s" r="E144">
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
         <v>12</v>
       </c>
       <c r="F144">
@@ -4869,24 +5158,24 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c t="s" r="I144">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
-      <c t="s" r="B145">
+      <c r="B145" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="C145">
-        <v>12</v>
-      </c>
-      <c t="s" r="D145">
-        <v>12</v>
-      </c>
-      <c t="s" r="E145">
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
         <v>12</v>
       </c>
       <c r="F145">
@@ -4898,24 +5187,24 @@
       <c r="H145">
         <v>2.5</v>
       </c>
-      <c t="s" r="I145">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
-      <c t="s" r="B146">
+      <c r="B146" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="C146">
-        <v>14</v>
-      </c>
-      <c t="s" r="D146">
-        <v>12</v>
-      </c>
-      <c t="s" r="E146">
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
         <v>12</v>
       </c>
       <c r="F146">
@@ -4927,27 +5216,27 @@
       <c r="H146">
         <v>5</v>
       </c>
-      <c t="s" r="I146">
-        <v>14</v>
-      </c>
-      <c t="s" r="J146">
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
-      <c t="s" r="B147">
+      <c r="B147" t="s">
         <v>167</v>
       </c>
-      <c t="s" r="C147">
-        <v>14</v>
-      </c>
-      <c t="s" r="D147">
-        <v>14</v>
-      </c>
-      <c t="s" r="E147">
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
         <v>12</v>
       </c>
       <c r="F147">
@@ -4959,24 +5248,24 @@
       <c r="H147">
         <v>6000</v>
       </c>
-      <c t="s" r="I147">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
-      <c t="s" r="B148">
+      <c r="B148" t="s">
         <v>168</v>
       </c>
-      <c t="s" r="C148">
-        <v>14</v>
-      </c>
-      <c t="s" r="D148">
-        <v>12</v>
-      </c>
-      <c t="s" r="E148">
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148">
@@ -4988,27 +5277,27 @@
       <c r="H148">
         <v>12.5</v>
       </c>
-      <c t="s" r="I148">
-        <v>14</v>
-      </c>
-      <c t="s" r="J148">
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
-      <c t="s" r="B149">
+      <c r="B149" t="s">
         <v>169</v>
       </c>
-      <c t="s" r="C149">
-        <v>12</v>
-      </c>
-      <c t="s" r="D149">
-        <v>12</v>
-      </c>
-      <c t="s" r="E149">
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
         <v>12</v>
       </c>
       <c r="F149">
@@ -5020,24 +5309,24 @@
       <c r="H149">
         <v>2.5</v>
       </c>
-      <c t="s" r="I149">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
-      <c t="s" r="B150">
+      <c r="B150" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="C150">
-        <v>12</v>
-      </c>
-      <c t="s" r="D150">
-        <v>12</v>
-      </c>
-      <c t="s" r="E150">
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
         <v>12</v>
       </c>
       <c r="F150">
@@ -5049,24 +5338,24 @@
       <c r="H150">
         <v>2.5</v>
       </c>
-      <c t="s" r="I150">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
-      <c t="s" r="B151">
+      <c r="B151" t="s">
         <v>171</v>
       </c>
-      <c t="s" r="C151">
-        <v>14</v>
-      </c>
-      <c t="s" r="D151">
-        <v>12</v>
-      </c>
-      <c t="s" r="E151">
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
         <v>12</v>
       </c>
       <c r="F151">
@@ -5078,24 +5367,24 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c t="s" r="I151">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
-      <c t="s" r="B152">
+      <c r="B152" t="s">
         <v>172</v>
       </c>
-      <c t="s" r="C152">
-        <v>14</v>
-      </c>
-      <c t="s" r="D152">
-        <v>12</v>
-      </c>
-      <c t="s" r="E152">
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
         <v>12</v>
       </c>
       <c r="F152">
@@ -5107,24 +5396,24 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c t="s" r="I152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
-      <c t="s" r="B153">
+      <c r="B153" t="s">
         <v>173</v>
       </c>
-      <c t="s" r="C153">
-        <v>14</v>
-      </c>
-      <c t="s" r="D153">
-        <v>12</v>
-      </c>
-      <c t="s" r="E153">
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
         <v>12</v>
       </c>
       <c r="F153">
@@ -5136,27 +5425,27 @@
       <c r="H153">
         <v>1</v>
       </c>
-      <c t="s" r="I153">
-        <v>12</v>
-      </c>
-      <c t="s" r="J153">
+      <c r="I153" t="s">
+        <v>12</v>
+      </c>
+      <c r="J153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
-      <c t="s" r="B154">
+      <c r="B154" t="s">
         <v>175</v>
       </c>
-      <c t="s" r="C154">
-        <v>14</v>
-      </c>
-      <c t="s" r="D154">
-        <v>12</v>
-      </c>
-      <c t="s" r="E154">
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
         <v>12</v>
       </c>
       <c r="F154">
@@ -5168,24 +5457,24 @@
       <c r="H154">
         <v>30</v>
       </c>
-      <c t="s" r="I154">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="I154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
-      <c t="s" r="B155">
+      <c r="B155" t="s">
         <v>176</v>
       </c>
-      <c t="s" r="C155">
-        <v>14</v>
-      </c>
-      <c t="s" r="D155">
-        <v>12</v>
-      </c>
-      <c t="s" r="E155">
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
         <v>12</v>
       </c>
       <c r="F155">
@@ -5197,24 +5486,24 @@
       <c r="H155">
         <v>15</v>
       </c>
-      <c t="s" r="I155">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
-      <c t="s" r="B156">
+      <c r="B156" t="s">
         <v>177</v>
       </c>
-      <c t="s" r="C156">
-        <v>14</v>
-      </c>
-      <c t="s" r="D156">
-        <v>12</v>
-      </c>
-      <c t="s" r="E156">
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
         <v>12</v>
       </c>
       <c r="F156">
@@ -5226,27 +5515,27 @@
       <c r="H156">
         <v>15</v>
       </c>
-      <c t="s" r="I156">
-        <v>14</v>
-      </c>
-      <c t="s" r="J156">
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
-      <c t="s" r="B157">
+      <c r="B157" t="s">
         <v>178</v>
       </c>
-      <c t="s" r="C157">
-        <v>14</v>
-      </c>
-      <c t="s" r="D157">
-        <v>12</v>
-      </c>
-      <c t="s" r="E157">
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
         <v>12</v>
       </c>
       <c r="F157">
@@ -5258,24 +5547,24 @@
       <c r="H157">
         <v>4</v>
       </c>
-      <c t="s" r="I157">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
-      <c t="s" r="B158">
+      <c r="B158" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="C158">
-        <v>14</v>
-      </c>
-      <c t="s" r="D158">
-        <v>12</v>
-      </c>
-      <c t="s" r="E158">
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
         <v>12</v>
       </c>
       <c r="F158">
@@ -5287,24 +5576,24 @@
       <c r="H158">
         <v>30</v>
       </c>
-      <c t="s" r="I158">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
-      <c t="s" r="B159">
+      <c r="B159" t="s">
         <v>180</v>
       </c>
-      <c t="s" r="C159">
-        <v>12</v>
-      </c>
-      <c t="s" r="D159">
-        <v>12</v>
-      </c>
-      <c t="s" r="E159">
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
         <v>12</v>
       </c>
       <c r="F159">
@@ -5316,24 +5605,24 @@
       <c r="H159">
         <v>3.5</v>
       </c>
-      <c t="s" r="I159">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
-      <c t="s" r="B160">
+      <c r="B160" t="s">
         <v>181</v>
       </c>
-      <c t="s" r="C160">
-        <v>14</v>
-      </c>
-      <c t="s" r="D160">
-        <v>12</v>
-      </c>
-      <c t="s" r="E160">
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
         <v>12</v>
       </c>
       <c r="F160">
@@ -5345,13 +5634,14 @@
       <c r="H160">
         <v>30</v>
       </c>
-      <c t="s" r="I160">
-        <v>14</v>
-      </c>
-      <c t="s" r="J160">
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -1,15 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="19815" windowHeight="7620"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -565,16 +562,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -584,7 +588,9 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -597,377 +603,82 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="2" customWidth="1" max="2" width="23.43"/>
+    <col min="11" customWidth="1" max="11" width="20.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c t="s" s="1" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" s="1" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" s="1" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" s="1" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" s="1" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c t="s" s="1" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c t="s" s="1" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c t="s" s="1" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c t="s" s="1" r="K1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c t="s" r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c t="s" r="C2">
+        <v>12</v>
+      </c>
+      <c t="s" r="D2">
+        <v>12</v>
+      </c>
+      <c t="s" r="E2">
         <v>12</v>
       </c>
       <c r="F2">
@@ -979,24 +690,24 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c t="s" r="B3">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c t="s" r="C3">
+        <v>14</v>
+      </c>
+      <c t="s" r="D3">
+        <v>12</v>
+      </c>
+      <c t="s" r="E3">
         <v>12</v>
       </c>
       <c r="F3">
@@ -1008,24 +719,24 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c t="s" r="B4">
+        <v>15</v>
+      </c>
+      <c t="s" r="C4">
+        <v>14</v>
+      </c>
+      <c t="s" r="D4">
+        <v>12</v>
+      </c>
+      <c t="s" r="E4">
         <v>12</v>
       </c>
       <c r="F4">
@@ -1037,24 +748,24 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c t="s" r="B5">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c t="s" r="C5">
+        <v>14</v>
+      </c>
+      <c t="s" r="D5">
+        <v>12</v>
+      </c>
+      <c t="s" r="E5">
         <v>12</v>
       </c>
       <c r="F5">
@@ -1066,24 +777,24 @@
       <c r="H5">
         <v>2.5</v>
       </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c t="s" r="B6">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c t="s" r="C6">
+        <v>14</v>
+      </c>
+      <c t="s" r="D6">
+        <v>12</v>
+      </c>
+      <c t="s" r="E6">
         <v>12</v>
       </c>
       <c r="F6">
@@ -1095,24 +806,24 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c t="s" r="B7">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c t="s" r="C7">
+        <v>14</v>
+      </c>
+      <c t="s" r="D7">
+        <v>12</v>
+      </c>
+      <c t="s" r="E7">
         <v>14</v>
       </c>
       <c r="F7">
@@ -1124,24 +835,24 @@
       <c r="H7">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c t="s" r="B8">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c t="s" r="C8">
+        <v>12</v>
+      </c>
+      <c t="s" r="D8">
+        <v>12</v>
+      </c>
+      <c t="s" r="E8">
         <v>12</v>
       </c>
       <c r="F8">
@@ -1153,24 +864,24 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c t="s" r="B9">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c t="s" r="C9">
+        <v>14</v>
+      </c>
+      <c t="s" r="D9">
+        <v>12</v>
+      </c>
+      <c t="s" r="E9">
         <v>12</v>
       </c>
       <c r="F9">
@@ -1182,28 +893,28 @@
       <c r="H9">
         <v>18000000</v>
       </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c t="s" r="B10">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c t="s" r="C10">
+        <v>12</v>
+      </c>
+      <c t="s" r="D10">
+        <v>12</v>
+      </c>
+      <c t="s" r="E10">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1211,7 +922,7 @@
       <c r="H10">
         <v>500</v>
       </c>
-      <c r="I10" t="s">
+      <c t="s" r="I10">
         <v>14</v>
       </c>
       <c r="K10">
@@ -1219,24 +930,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c t="s" r="B11">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
+      <c t="s" r="C11">
+        <v>12</v>
+      </c>
+      <c t="s" r="D11">
+        <v>12</v>
+      </c>
+      <c t="s" r="E11">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1244,7 +955,7 @@
       <c r="H11">
         <v>500</v>
       </c>
-      <c r="I11" t="s">
+      <c t="s" r="I11">
         <v>12</v>
       </c>
       <c r="K11">
@@ -1252,20 +963,20 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c t="s" r="B12">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c t="s" r="C12">
+        <v>12</v>
+      </c>
+      <c t="s" r="D12">
+        <v>12</v>
+      </c>
+      <c t="s" r="E12">
         <v>12</v>
       </c>
       <c r="F12">
@@ -1277,28 +988,28 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c t="s" r="I12">
         <v>14</v>
       </c>
       <c r="K12">
         <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.033333333333333</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c t="s" r="B13">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c t="s" r="C13">
+        <v>12</v>
+      </c>
+      <c t="s" r="D13">
+        <v>12</v>
+      </c>
+      <c t="s" r="E13">
         <v>12</v>
       </c>
       <c r="F13">
@@ -1310,28 +1021,28 @@
       <c r="H13">
         <v>500</v>
       </c>
-      <c r="I13" t="s">
+      <c t="s" r="I13">
         <v>12</v>
       </c>
       <c r="K13">
         <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.033333333333333</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c t="s" r="B14">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
+      <c t="s" r="C14">
+        <v>14</v>
+      </c>
+      <c t="s" r="D14">
+        <v>14</v>
+      </c>
+      <c t="s" r="E14">
         <v>12</v>
       </c>
       <c r="F14">
@@ -1343,24 +1054,24 @@
       <c r="H14">
         <v>2.5</v>
       </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c t="s" r="B15">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c t="s" r="C15">
+        <v>14</v>
+      </c>
+      <c t="s" r="D15">
+        <v>14</v>
+      </c>
+      <c t="s" r="E15">
         <v>12</v>
       </c>
       <c r="F15">
@@ -1372,24 +1083,24 @@
       <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c t="s" r="B16">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
+      <c t="s" r="C16">
+        <v>14</v>
+      </c>
+      <c t="s" r="D16">
+        <v>12</v>
+      </c>
+      <c t="s" r="E16">
         <v>12</v>
       </c>
       <c r="F16">
@@ -1401,24 +1112,24 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c t="s" r="B17">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
+      <c t="s" r="C17">
+        <v>14</v>
+      </c>
+      <c t="s" r="D17">
+        <v>12</v>
+      </c>
+      <c t="s" r="E17">
         <v>12</v>
       </c>
       <c r="F17">
@@ -1430,24 +1141,24 @@
       <c r="H17">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c t="s" r="B18">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c t="s" r="C18">
+        <v>14</v>
+      </c>
+      <c t="s" r="D18">
+        <v>12</v>
+      </c>
+      <c t="s" r="E18">
         <v>12</v>
       </c>
       <c r="F18">
@@ -1459,24 +1170,24 @@
       <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c t="s" r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
+      <c t="s" r="C19">
+        <v>14</v>
+      </c>
+      <c t="s" r="D19">
+        <v>12</v>
+      </c>
+      <c t="s" r="E19">
         <v>14</v>
       </c>
       <c r="F19">
@@ -1488,24 +1199,24 @@
       <c r="H19">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c t="s" r="B20">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
+      <c t="s" r="C20">
+        <v>14</v>
+      </c>
+      <c t="s" r="D20">
+        <v>12</v>
+      </c>
+      <c t="s" r="E20">
         <v>14</v>
       </c>
       <c r="F20">
@@ -1517,24 +1228,24 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c t="s" r="B21">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
+      <c t="s" r="C21">
+        <v>14</v>
+      </c>
+      <c t="s" r="D21">
+        <v>12</v>
+      </c>
+      <c t="s" r="E21">
         <v>12</v>
       </c>
       <c r="F21">
@@ -1546,24 +1257,24 @@
       <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c t="s" r="B22">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
+      <c t="s" r="C22">
+        <v>14</v>
+      </c>
+      <c t="s" r="D22">
+        <v>12</v>
+      </c>
+      <c t="s" r="E22">
         <v>12</v>
       </c>
       <c r="F22">
@@ -1575,24 +1286,24 @@
       <c r="H22">
         <v>1.5</v>
       </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c t="s" r="B23">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+      <c t="s" r="C23">
+        <v>14</v>
+      </c>
+      <c t="s" r="D23">
+        <v>12</v>
+      </c>
+      <c t="s" r="E23">
         <v>12</v>
       </c>
       <c r="F23">
@@ -1604,24 +1315,24 @@
       <c r="H23">
         <v>15</v>
       </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c t="s" r="B24">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+      <c t="s" r="C24">
+        <v>14</v>
+      </c>
+      <c t="s" r="D24">
+        <v>12</v>
+      </c>
+      <c t="s" r="E24">
         <v>12</v>
       </c>
       <c r="F24">
@@ -1633,24 +1344,24 @@
       <c r="H24">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c t="s" r="B25">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
+      <c t="s" r="C25">
+        <v>14</v>
+      </c>
+      <c t="s" r="D25">
+        <v>12</v>
+      </c>
+      <c t="s" r="E25">
         <v>12</v>
       </c>
       <c r="F25">
@@ -1662,27 +1373,27 @@
       <c r="H25">
         <v>17.5</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
+      <c t="s" r="I25">
+        <v>14</v>
+      </c>
+      <c t="s" r="J25">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c t="s" r="B26">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
+      <c t="s" r="C26">
+        <v>14</v>
+      </c>
+      <c t="s" r="D26">
+        <v>12</v>
+      </c>
+      <c t="s" r="E26">
         <v>12</v>
       </c>
       <c r="F26">
@@ -1694,24 +1405,24 @@
       <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c t="s" r="B27">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
+      <c t="s" r="C27">
+        <v>14</v>
+      </c>
+      <c t="s" r="D27">
+        <v>12</v>
+      </c>
+      <c t="s" r="E27">
         <v>14</v>
       </c>
       <c r="F27">
@@ -1723,24 +1434,24 @@
       <c r="H27">
         <v>4</v>
       </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c t="s" r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
+      <c t="s" r="C28">
+        <v>14</v>
+      </c>
+      <c t="s" r="D28">
+        <v>12</v>
+      </c>
+      <c t="s" r="E28">
         <v>14</v>
       </c>
       <c r="F28">
@@ -1752,27 +1463,27 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
+      <c t="s" r="I28">
+        <v>12</v>
+      </c>
+      <c t="s" r="J28">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c t="s" r="B29">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
+      <c t="s" r="C29">
+        <v>12</v>
+      </c>
+      <c t="s" r="D29">
+        <v>12</v>
+      </c>
+      <c t="s" r="E29">
         <v>12</v>
       </c>
       <c r="F29">
@@ -1784,24 +1495,24 @@
       <c r="H29">
         <v>3.5</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c t="s" r="B30">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
+      <c t="s" r="C30">
+        <v>12</v>
+      </c>
+      <c t="s" r="D30">
+        <v>12</v>
+      </c>
+      <c t="s" r="E30">
         <v>12</v>
       </c>
       <c r="F30">
@@ -1813,24 +1524,24 @@
       <c r="H30">
         <v>3.5</v>
       </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c t="s" r="B31">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
+      <c t="s" r="C31">
+        <v>14</v>
+      </c>
+      <c t="s" r="D31">
+        <v>12</v>
+      </c>
+      <c t="s" r="E31">
         <v>12</v>
       </c>
       <c r="F31">
@@ -1842,24 +1553,24 @@
       <c r="H31">
         <v>2.5</v>
       </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c t="s" r="I31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c t="s" r="B32">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
+      <c t="s" r="C32">
+        <v>12</v>
+      </c>
+      <c t="s" r="D32">
+        <v>12</v>
+      </c>
+      <c t="s" r="E32">
         <v>12</v>
       </c>
       <c r="F32">
@@ -1871,24 +1582,24 @@
       <c r="H32">
         <v>20</v>
       </c>
-      <c r="I32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c t="s" r="B33">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
+      <c t="s" r="C33">
+        <v>12</v>
+      </c>
+      <c t="s" r="D33">
+        <v>12</v>
+      </c>
+      <c t="s" r="E33">
         <v>14</v>
       </c>
       <c r="F33">
@@ -1900,24 +1611,24 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c t="s" r="B34">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
+      <c t="s" r="C34">
+        <v>12</v>
+      </c>
+      <c t="s" r="D34">
+        <v>14</v>
+      </c>
+      <c t="s" r="E34">
         <v>12</v>
       </c>
       <c r="F34">
@@ -1929,24 +1640,24 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c t="s" r="B35">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
+      <c t="s" r="C35">
+        <v>14</v>
+      </c>
+      <c t="s" r="D35">
+        <v>12</v>
+      </c>
+      <c t="s" r="E35">
         <v>12</v>
       </c>
       <c r="F35">
@@ -1958,24 +1669,24 @@
       <c r="H35">
         <v>2.5</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c t="s" r="B36">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
+      <c t="s" r="C36">
+        <v>14</v>
+      </c>
+      <c t="s" r="D36">
+        <v>12</v>
+      </c>
+      <c t="s" r="E36">
         <v>12</v>
       </c>
       <c r="F36">
@@ -1987,24 +1698,24 @@
       <c r="H36">
         <v>2.5</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c t="s" r="B37">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
+      <c t="s" r="C37">
+        <v>14</v>
+      </c>
+      <c t="s" r="D37">
+        <v>12</v>
+      </c>
+      <c t="s" r="E37">
         <v>14</v>
       </c>
       <c r="F37">
@@ -2016,24 +1727,24 @@
       <c r="H37">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c t="s" r="B38">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
+      <c t="s" r="C38">
+        <v>14</v>
+      </c>
+      <c t="s" r="D38">
+        <v>12</v>
+      </c>
+      <c t="s" r="E38">
         <v>12</v>
       </c>
       <c r="F38">
@@ -2045,27 +1756,27 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
+      <c t="s" r="I38">
+        <v>12</v>
+      </c>
+      <c t="s" r="J38">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c t="s" r="B39">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
+      <c t="s" r="C39">
+        <v>12</v>
+      </c>
+      <c t="s" r="D39">
+        <v>12</v>
+      </c>
+      <c t="s" r="E39">
         <v>12</v>
       </c>
       <c r="F39">
@@ -2077,24 +1788,24 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c t="s" r="B40">
         <v>53</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
+      <c t="s" r="C40">
+        <v>12</v>
+      </c>
+      <c t="s" r="D40">
+        <v>12</v>
+      </c>
+      <c t="s" r="E40">
         <v>12</v>
       </c>
       <c r="F40">
@@ -2106,24 +1817,24 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c t="s" r="B41">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
+      <c t="s" r="C41">
+        <v>12</v>
+      </c>
+      <c t="s" r="D41">
+        <v>12</v>
+      </c>
+      <c t="s" r="E41">
         <v>12</v>
       </c>
       <c r="F41">
@@ -2135,24 +1846,24 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c t="s" r="B42">
         <v>55</v>
       </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
+      <c t="s" r="C42">
+        <v>12</v>
+      </c>
+      <c t="s" r="D42">
+        <v>12</v>
+      </c>
+      <c t="s" r="E42">
         <v>12</v>
       </c>
       <c r="F42">
@@ -2164,24 +1875,24 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c t="s" r="B43">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
+      <c t="s" r="C43">
+        <v>14</v>
+      </c>
+      <c t="s" r="D43">
+        <v>12</v>
+      </c>
+      <c t="s" r="E43">
         <v>12</v>
       </c>
       <c r="F43">
@@ -2193,24 +1904,24 @@
       <c r="H43">
         <v>30</v>
       </c>
-      <c r="I43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c t="s" r="B44">
         <v>57</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c t="s" r="C44">
+        <v>14</v>
+      </c>
+      <c t="s" r="D44">
+        <v>12</v>
+      </c>
+      <c t="s" r="E44">
         <v>12</v>
       </c>
       <c r="F44">
@@ -2222,24 +1933,24 @@
       <c r="H44">
         <v>30</v>
       </c>
-      <c r="I44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c t="s" r="B45">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
+      <c t="s" r="C45">
+        <v>14</v>
+      </c>
+      <c t="s" r="D45">
+        <v>12</v>
+      </c>
+      <c t="s" r="E45">
         <v>12</v>
       </c>
       <c r="F45">
@@ -2251,24 +1962,24 @@
       <c r="H45">
         <v>30</v>
       </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c t="s" r="B46">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
+      <c t="s" r="C46">
+        <v>14</v>
+      </c>
+      <c t="s" r="D46">
+        <v>12</v>
+      </c>
+      <c t="s" r="E46">
         <v>12</v>
       </c>
       <c r="F46">
@@ -2280,24 +1991,24 @@
       <c r="H46">
         <v>30</v>
       </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c t="s" r="B47">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
+      <c t="s" r="C47">
+        <v>14</v>
+      </c>
+      <c t="s" r="D47">
+        <v>12</v>
+      </c>
+      <c t="s" r="E47">
         <v>12</v>
       </c>
       <c r="F47">
@@ -2309,24 +2020,24 @@
       <c r="H47">
         <v>30</v>
       </c>
-      <c r="I47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c t="s" r="B48">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
+      <c t="s" r="C48">
+        <v>14</v>
+      </c>
+      <c t="s" r="D48">
+        <v>12</v>
+      </c>
+      <c t="s" r="E48">
         <v>14</v>
       </c>
       <c r="F48">
@@ -2338,24 +2049,24 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c t="s" r="B49">
         <v>62</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
+      <c t="s" r="C49">
+        <v>14</v>
+      </c>
+      <c t="s" r="D49">
+        <v>12</v>
+      </c>
+      <c t="s" r="E49">
         <v>14</v>
       </c>
       <c r="F49">
@@ -2367,24 +2078,24 @@
       <c r="H49">
         <v>7.5</v>
       </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c t="s" r="B50">
         <v>63</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
+      <c t="s" r="C50">
+        <v>14</v>
+      </c>
+      <c t="s" r="D50">
+        <v>12</v>
+      </c>
+      <c t="s" r="E50">
         <v>12</v>
       </c>
       <c r="F50">
@@ -2396,24 +2107,24 @@
       <c r="H50">
         <v>30</v>
       </c>
-      <c r="I50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c t="s" r="B51">
         <v>64</v>
       </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
+      <c t="s" r="C51">
+        <v>14</v>
+      </c>
+      <c t="s" r="D51">
+        <v>12</v>
+      </c>
+      <c t="s" r="E51">
         <v>12</v>
       </c>
       <c r="F51">
@@ -2425,24 +2136,24 @@
       <c r="H51">
         <v>6000</v>
       </c>
-      <c r="I51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c t="s" r="B52">
         <v>65</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
+      <c t="s" r="C52">
+        <v>12</v>
+      </c>
+      <c t="s" r="D52">
+        <v>12</v>
+      </c>
+      <c t="s" r="E52">
         <v>12</v>
       </c>
       <c r="F52">
@@ -2454,24 +2165,24 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c t="s" r="B53">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
+      <c t="s" r="C53">
+        <v>12</v>
+      </c>
+      <c t="s" r="D53">
+        <v>12</v>
+      </c>
+      <c t="s" r="E53">
         <v>12</v>
       </c>
       <c r="F53">
@@ -2483,24 +2194,24 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c t="s" r="B54">
         <v>67</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
+      <c t="s" r="C54">
+        <v>14</v>
+      </c>
+      <c t="s" r="D54">
+        <v>12</v>
+      </c>
+      <c t="s" r="E54">
         <v>12</v>
       </c>
       <c r="F54">
@@ -2512,27 +2223,27 @@
       <c r="H54">
         <v>25</v>
       </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" t="s">
+      <c t="s" r="I54">
+        <v>12</v>
+      </c>
+      <c t="s" r="J54">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c t="s" r="B55">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
+      <c t="s" r="C55">
+        <v>14</v>
+      </c>
+      <c t="s" r="D55">
+        <v>12</v>
+      </c>
+      <c t="s" r="E55">
         <v>14</v>
       </c>
       <c r="F55">
@@ -2544,24 +2255,24 @@
       <c r="H55">
         <v>15</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c t="s" r="B56">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
+      <c t="s" r="C56">
+        <v>14</v>
+      </c>
+      <c t="s" r="D56">
+        <v>12</v>
+      </c>
+      <c t="s" r="E56">
         <v>14</v>
       </c>
       <c r="F56">
@@ -2573,27 +2284,27 @@
       <c r="H56">
         <v>12.5</v>
       </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
+      <c t="s" r="I56">
+        <v>14</v>
+      </c>
+      <c t="s" r="J56">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c t="s" r="B57">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
+      <c t="s" r="C57">
+        <v>12</v>
+      </c>
+      <c t="s" r="D57">
+        <v>12</v>
+      </c>
+      <c t="s" r="E57">
         <v>12</v>
       </c>
       <c r="F57">
@@ -2605,24 +2316,24 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c t="s" r="B58">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
+      <c t="s" r="C58">
+        <v>14</v>
+      </c>
+      <c t="s" r="D58">
+        <v>12</v>
+      </c>
+      <c t="s" r="E58">
         <v>12</v>
       </c>
       <c r="F58">
@@ -2634,24 +2345,24 @@
       <c r="H58">
         <v>15</v>
       </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c t="s" r="B59">
         <v>73</v>
       </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
+      <c t="s" r="C59">
+        <v>14</v>
+      </c>
+      <c t="s" r="D59">
+        <v>12</v>
+      </c>
+      <c t="s" r="E59">
         <v>12</v>
       </c>
       <c r="F59">
@@ -2663,24 +2374,24 @@
       <c r="H59">
         <v>30</v>
       </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c t="s" r="B60">
         <v>74</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
+      <c t="s" r="C60">
+        <v>14</v>
+      </c>
+      <c t="s" r="D60">
+        <v>12</v>
+      </c>
+      <c t="s" r="E60">
         <v>14</v>
       </c>
       <c r="F60">
@@ -2692,24 +2403,24 @@
       <c r="H60">
         <v>12.5</v>
       </c>
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c t="s" r="B61">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
+      <c t="s" r="C61">
+        <v>12</v>
+      </c>
+      <c t="s" r="D61">
+        <v>12</v>
+      </c>
+      <c t="s" r="E61">
         <v>12</v>
       </c>
       <c r="F61">
@@ -2721,24 +2432,24 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c t="s" r="B62">
         <v>76</v>
       </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
+      <c t="s" r="C62">
+        <v>14</v>
+      </c>
+      <c t="s" r="D62">
+        <v>12</v>
+      </c>
+      <c t="s" r="E62">
         <v>12</v>
       </c>
       <c r="F62">
@@ -2750,24 +2461,24 @@
       <c r="H62">
         <v>3</v>
       </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c t="s" r="B63">
         <v>77</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
+      <c t="s" r="C63">
+        <v>14</v>
+      </c>
+      <c t="s" r="D63">
+        <v>12</v>
+      </c>
+      <c t="s" r="E63">
         <v>12</v>
       </c>
       <c r="F63">
@@ -2779,27 +2490,27 @@
       <c r="H63">
         <v>17.5</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
+      <c t="s" r="I63">
+        <v>14</v>
+      </c>
+      <c t="s" r="J63">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c t="s" r="B64">
         <v>78</v>
       </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
+      <c t="s" r="C64">
+        <v>14</v>
+      </c>
+      <c t="s" r="D64">
+        <v>12</v>
+      </c>
+      <c t="s" r="E64">
         <v>12</v>
       </c>
       <c r="F64">
@@ -2811,27 +2522,27 @@
       <c r="H64">
         <v>17.5</v>
       </c>
-      <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" t="s">
+      <c t="s" r="I64">
+        <v>14</v>
+      </c>
+      <c t="s" r="J64">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c t="s" r="B65">
         <v>79</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s">
+      <c t="s" r="C65">
+        <v>12</v>
+      </c>
+      <c t="s" r="D65">
+        <v>12</v>
+      </c>
+      <c t="s" r="E65">
         <v>14</v>
       </c>
       <c r="F65">
@@ -2843,27 +2554,27 @@
       <c r="H65">
         <v>5</v>
       </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
+      <c t="s" r="I65">
+        <v>14</v>
+      </c>
+      <c t="s" r="J65">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c t="s" r="B66">
         <v>81</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s">
+      <c t="s" r="C66">
+        <v>14</v>
+      </c>
+      <c t="s" r="D66">
+        <v>12</v>
+      </c>
+      <c t="s" r="E66">
         <v>14</v>
       </c>
       <c r="F66">
@@ -2875,24 +2586,24 @@
       <c r="H66">
         <v>15</v>
       </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c t="s" r="B67">
         <v>82</v>
       </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s">
+      <c t="s" r="C67">
+        <v>14</v>
+      </c>
+      <c t="s" r="D67">
+        <v>12</v>
+      </c>
+      <c t="s" r="E67">
         <v>12</v>
       </c>
       <c r="F67">
@@ -2904,24 +2615,24 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c t="s" r="B68">
         <v>83</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
+      <c t="s" r="C68">
+        <v>12</v>
+      </c>
+      <c t="s" r="D68">
+        <v>12</v>
+      </c>
+      <c t="s" r="E68">
         <v>12</v>
       </c>
       <c r="F68">
@@ -2933,24 +2644,24 @@
       <c r="H68">
         <v>3.5</v>
       </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c t="s" r="B69">
         <v>84</v>
       </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
+      <c t="s" r="C69">
+        <v>14</v>
+      </c>
+      <c t="s" r="D69">
+        <v>12</v>
+      </c>
+      <c t="s" r="E69">
         <v>12</v>
       </c>
       <c r="F69">
@@ -2962,24 +2673,24 @@
       <c r="H69">
         <v>30</v>
       </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c t="s" r="B70">
         <v>85</v>
       </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
+      <c t="s" r="C70">
+        <v>12</v>
+      </c>
+      <c t="s" r="D70">
+        <v>12</v>
+      </c>
+      <c t="s" r="E70">
         <v>14</v>
       </c>
       <c r="F70">
@@ -2991,27 +2702,27 @@
       <c r="H70">
         <v>5</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
+      <c t="s" r="I70">
+        <v>14</v>
+      </c>
+      <c t="s" r="J70">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c t="s" r="B71">
         <v>86</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
+      <c t="s" r="C71">
+        <v>12</v>
+      </c>
+      <c t="s" r="D71">
+        <v>12</v>
+      </c>
+      <c t="s" r="E71">
         <v>12</v>
       </c>
       <c r="F71">
@@ -3023,24 +2734,24 @@
       <c r="H71">
         <v>2.5</v>
       </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c t="s" r="B72">
         <v>87</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
+      <c t="s" r="C72">
+        <v>12</v>
+      </c>
+      <c t="s" r="D72">
+        <v>12</v>
+      </c>
+      <c t="s" r="E72">
         <v>12</v>
       </c>
       <c r="F72">
@@ -3052,24 +2763,24 @@
       <c r="H72">
         <v>2.5</v>
       </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c t="s" r="B73">
         <v>88</v>
       </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" t="s">
+      <c t="s" r="C73">
+        <v>14</v>
+      </c>
+      <c t="s" r="D73">
+        <v>12</v>
+      </c>
+      <c t="s" r="E73">
         <v>12</v>
       </c>
       <c r="F73">
@@ -3081,24 +2792,24 @@
       <c r="H73">
         <v>25</v>
       </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c t="s" r="B74">
         <v>89</v>
       </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s">
+      <c t="s" r="C74">
+        <v>12</v>
+      </c>
+      <c t="s" r="D74">
+        <v>12</v>
+      </c>
+      <c t="s" r="E74">
         <v>14</v>
       </c>
       <c r="F74">
@@ -3110,24 +2821,24 @@
       <c r="H74">
         <v>2.5</v>
       </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c t="s" r="B75">
         <v>90</v>
       </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s">
+      <c t="s" r="C75">
+        <v>14</v>
+      </c>
+      <c t="s" r="D75">
+        <v>12</v>
+      </c>
+      <c t="s" r="E75">
         <v>12</v>
       </c>
       <c r="F75">
@@ -3139,24 +2850,24 @@
       <c r="H75">
         <v>15</v>
       </c>
-      <c r="I75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c t="s" r="B76">
         <v>91</v>
       </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" t="s">
+      <c t="s" r="C76">
+        <v>14</v>
+      </c>
+      <c t="s" r="D76">
+        <v>12</v>
+      </c>
+      <c t="s" r="E76">
         <v>12</v>
       </c>
       <c r="F76">
@@ -3168,24 +2879,24 @@
       <c r="H76">
         <v>15</v>
       </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c t="s" r="B77">
         <v>92</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
+      <c t="s" r="C77">
+        <v>12</v>
+      </c>
+      <c t="s" r="D77">
+        <v>12</v>
+      </c>
+      <c t="s" r="E77">
         <v>12</v>
       </c>
       <c r="F77">
@@ -3197,24 +2908,24 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c t="s" r="B78">
         <v>93</v>
       </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
+      <c t="s" r="C78">
+        <v>12</v>
+      </c>
+      <c t="s" r="D78">
+        <v>12</v>
+      </c>
+      <c t="s" r="E78">
         <v>12</v>
       </c>
       <c r="F78">
@@ -3226,24 +2937,24 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c t="s" r="B79">
         <v>94</v>
       </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
+      <c t="s" r="C79">
+        <v>12</v>
+      </c>
+      <c t="s" r="D79">
+        <v>12</v>
+      </c>
+      <c t="s" r="E79">
         <v>12</v>
       </c>
       <c r="F79">
@@ -3255,24 +2966,24 @@
       <c r="H79">
         <v>2.5</v>
       </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c t="s" r="B80">
         <v>95</v>
       </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
+      <c t="s" r="C80">
+        <v>14</v>
+      </c>
+      <c t="s" r="D80">
+        <v>12</v>
+      </c>
+      <c t="s" r="E80">
         <v>12</v>
       </c>
       <c r="F80">
@@ -3284,24 +2995,24 @@
       <c r="H80">
         <v>0.5</v>
       </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c t="s" r="B81">
         <v>96</v>
       </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s">
+      <c t="s" r="C81">
+        <v>14</v>
+      </c>
+      <c t="s" r="D81">
+        <v>12</v>
+      </c>
+      <c t="s" r="E81">
         <v>12</v>
       </c>
       <c r="F81">
@@ -3313,24 +3024,24 @@
       <c r="H81">
         <v>2.5</v>
       </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c t="s" r="B82">
         <v>97</v>
       </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s">
+      <c t="s" r="C82">
+        <v>14</v>
+      </c>
+      <c t="s" r="D82">
+        <v>12</v>
+      </c>
+      <c t="s" r="E82">
         <v>12</v>
       </c>
       <c r="F82">
@@ -3342,24 +3053,24 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c t="s" r="B83">
         <v>98</v>
       </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s">
+      <c t="s" r="C83">
+        <v>14</v>
+      </c>
+      <c t="s" r="D83">
+        <v>12</v>
+      </c>
+      <c t="s" r="E83">
         <v>12</v>
       </c>
       <c r="F83">
@@ -3371,24 +3082,24 @@
       <c r="H83">
         <v>2</v>
       </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c t="s" r="B84">
         <v>99</v>
       </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" t="s">
+      <c t="s" r="C84">
+        <v>14</v>
+      </c>
+      <c t="s" r="D84">
+        <v>12</v>
+      </c>
+      <c t="s" r="E84">
         <v>12</v>
       </c>
       <c r="F84">
@@ -3400,24 +3111,24 @@
       <c r="H84">
         <v>3</v>
       </c>
-      <c r="I84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c t="s" r="B85">
         <v>100</v>
       </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" t="s">
+      <c t="s" r="C85">
+        <v>12</v>
+      </c>
+      <c t="s" r="D85">
+        <v>12</v>
+      </c>
+      <c t="s" r="E85">
         <v>12</v>
       </c>
       <c r="F85">
@@ -3429,24 +3140,24 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c t="s" r="B86">
         <v>101</v>
       </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
+      <c t="s" r="C86">
+        <v>14</v>
+      </c>
+      <c t="s" r="D86">
+        <v>12</v>
+      </c>
+      <c t="s" r="E86">
         <v>14</v>
       </c>
       <c r="F86">
@@ -3458,27 +3169,27 @@
       <c r="H86">
         <v>30</v>
       </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
+      <c t="s" r="I86">
+        <v>14</v>
+      </c>
+      <c t="s" r="J86">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c t="s" r="B87">
         <v>103</v>
       </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
+      <c t="s" r="C87">
+        <v>14</v>
+      </c>
+      <c t="s" r="D87">
+        <v>12</v>
+      </c>
+      <c t="s" r="E87">
         <v>14</v>
       </c>
       <c r="F87">
@@ -3490,24 +3201,24 @@
       <c r="H87">
         <v>15</v>
       </c>
-      <c r="I87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c t="s" r="B88">
         <v>104</v>
       </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
+      <c t="s" r="C88">
+        <v>14</v>
+      </c>
+      <c t="s" r="D88">
+        <v>12</v>
+      </c>
+      <c t="s" r="E88">
         <v>12</v>
       </c>
       <c r="F88">
@@ -3519,24 +3230,24 @@
       <c r="H88">
         <v>5</v>
       </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c t="s" r="B89">
         <v>105</v>
       </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
+      <c t="s" r="C89">
+        <v>14</v>
+      </c>
+      <c t="s" r="D89">
+        <v>12</v>
+      </c>
+      <c t="s" r="E89">
         <v>14</v>
       </c>
       <c r="F89">
@@ -3548,24 +3259,24 @@
       <c r="H89">
         <v>2</v>
       </c>
-      <c r="I89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c t="s" r="B90">
         <v>106</v>
       </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" t="s">
+      <c t="s" r="C90">
+        <v>14</v>
+      </c>
+      <c t="s" r="D90">
+        <v>12</v>
+      </c>
+      <c t="s" r="E90">
         <v>12</v>
       </c>
       <c r="F90">
@@ -3577,24 +3288,24 @@
       <c r="H90">
         <v>2.5</v>
       </c>
-      <c r="I90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c t="s" r="B91">
         <v>107</v>
       </c>
-      <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" t="s">
+      <c t="s" r="C91">
+        <v>14</v>
+      </c>
+      <c t="s" r="D91">
+        <v>12</v>
+      </c>
+      <c t="s" r="E91">
         <v>12</v>
       </c>
       <c r="F91">
@@ -3606,24 +3317,24 @@
       <c r="H91">
         <v>1.5</v>
       </c>
-      <c r="I91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c t="s" r="B92">
         <v>108</v>
       </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
+      <c t="s" r="C92">
+        <v>12</v>
+      </c>
+      <c t="s" r="D92">
+        <v>12</v>
+      </c>
+      <c t="s" r="E92">
         <v>12</v>
       </c>
       <c r="F92">
@@ -3635,24 +3346,24 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c t="s" r="B93">
         <v>109</v>
       </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" t="s">
+      <c t="s" r="C93">
+        <v>14</v>
+      </c>
+      <c t="s" r="D93">
+        <v>12</v>
+      </c>
+      <c t="s" r="E93">
         <v>12</v>
       </c>
       <c r="F93">
@@ -3664,24 +3375,24 @@
       <c r="H93">
         <v>5</v>
       </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c t="s" r="B94">
         <v>110</v>
       </c>
-      <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
+      <c t="s" r="C94">
+        <v>14</v>
+      </c>
+      <c t="s" r="D94">
+        <v>12</v>
+      </c>
+      <c t="s" r="E94">
         <v>12</v>
       </c>
       <c r="F94">
@@ -3693,24 +3404,24 @@
       <c r="H94">
         <v>2.5</v>
       </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c t="s" r="B95">
         <v>111</v>
       </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
+      <c t="s" r="C95">
+        <v>14</v>
+      </c>
+      <c t="s" r="D95">
+        <v>12</v>
+      </c>
+      <c t="s" r="E95">
         <v>12</v>
       </c>
       <c r="F95">
@@ -3722,24 +3433,24 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c t="s" r="B96">
         <v>112</v>
       </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" t="s">
+      <c t="s" r="C96">
+        <v>14</v>
+      </c>
+      <c t="s" r="D96">
+        <v>12</v>
+      </c>
+      <c t="s" r="E96">
         <v>12</v>
       </c>
       <c r="F96">
@@ -3751,24 +3462,24 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c t="s" r="B97">
         <v>113</v>
       </c>
-      <c r="C97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" t="s">
+      <c t="s" r="C97">
+        <v>14</v>
+      </c>
+      <c t="s" r="D97">
+        <v>12</v>
+      </c>
+      <c t="s" r="E97">
         <v>14</v>
       </c>
       <c r="F97">
@@ -3780,24 +3491,24 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c t="s" r="B98">
         <v>114</v>
       </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
+      <c t="s" r="C98">
+        <v>14</v>
+      </c>
+      <c t="s" r="D98">
+        <v>12</v>
+      </c>
+      <c t="s" r="E98">
         <v>14</v>
       </c>
       <c r="F98">
@@ -3809,24 +3520,24 @@
       <c r="H98">
         <v>15</v>
       </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c t="s" r="B99">
         <v>115</v>
       </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s">
+      <c t="s" r="C99">
+        <v>14</v>
+      </c>
+      <c t="s" r="D99">
+        <v>12</v>
+      </c>
+      <c t="s" r="E99">
         <v>12</v>
       </c>
       <c r="F99">
@@ -3838,24 +3549,24 @@
       <c r="H99">
         <v>3.75</v>
       </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c t="s" r="B100">
         <v>116</v>
       </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
+      <c t="s" r="C100">
+        <v>14</v>
+      </c>
+      <c t="s" r="D100">
+        <v>12</v>
+      </c>
+      <c t="s" r="E100">
         <v>12</v>
       </c>
       <c r="F100">
@@ -3867,24 +3578,24 @@
       <c r="H100">
         <v>30</v>
       </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c t="s" r="B101">
         <v>117</v>
       </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
+      <c t="s" r="C101">
+        <v>14</v>
+      </c>
+      <c t="s" r="D101">
+        <v>12</v>
+      </c>
+      <c t="s" r="E101">
         <v>14</v>
       </c>
       <c r="F101">
@@ -3896,24 +3607,24 @@
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c t="s" r="B102">
         <v>118</v>
       </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
+      <c t="s" r="C102">
+        <v>14</v>
+      </c>
+      <c t="s" r="D102">
+        <v>12</v>
+      </c>
+      <c t="s" r="E102">
         <v>14</v>
       </c>
       <c r="F102">
@@ -3925,24 +3636,24 @@
       <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c t="s" r="B103">
         <v>119</v>
       </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
+      <c t="s" r="C103">
+        <v>14</v>
+      </c>
+      <c t="s" r="D103">
+        <v>12</v>
+      </c>
+      <c t="s" r="E103">
         <v>12</v>
       </c>
       <c r="F103">
@@ -3954,24 +3665,24 @@
       <c r="H103">
         <v>30</v>
       </c>
-      <c r="I103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c t="s" r="B104">
         <v>120</v>
       </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
+      <c t="s" r="C104">
+        <v>14</v>
+      </c>
+      <c t="s" r="D104">
+        <v>12</v>
+      </c>
+      <c t="s" r="E104">
         <v>12</v>
       </c>
       <c r="F104">
@@ -3983,24 +3694,24 @@
       <c r="H104">
         <v>1.5</v>
       </c>
-      <c r="I104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c t="s" r="B105">
         <v>121</v>
       </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s">
+      <c t="s" r="C105">
+        <v>14</v>
+      </c>
+      <c t="s" r="D105">
+        <v>12</v>
+      </c>
+      <c t="s" r="E105">
         <v>12</v>
       </c>
       <c r="F105">
@@ -4012,24 +3723,24 @@
       <c r="H105">
         <v>5</v>
       </c>
-      <c r="I105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c t="s" r="B106">
         <v>122</v>
       </c>
-      <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
+      <c t="s" r="C106">
+        <v>12</v>
+      </c>
+      <c t="s" r="D106">
+        <v>12</v>
+      </c>
+      <c t="s" r="E106">
         <v>12</v>
       </c>
       <c r="F106">
@@ -4041,24 +3752,24 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c t="s" r="B107">
         <v>123</v>
       </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
+      <c t="s" r="C107">
+        <v>12</v>
+      </c>
+      <c t="s" r="D107">
+        <v>12</v>
+      </c>
+      <c t="s" r="E107">
         <v>12</v>
       </c>
       <c r="F107">
@@ -4070,24 +3781,24 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c t="s" r="B108">
         <v>124</v>
       </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
+      <c t="s" r="C108">
+        <v>12</v>
+      </c>
+      <c t="s" r="D108">
+        <v>12</v>
+      </c>
+      <c t="s" r="E108">
         <v>14</v>
       </c>
       <c r="F108">
@@ -4099,24 +3810,24 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c t="s" r="B109">
         <v>125</v>
       </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
+      <c t="s" r="C109">
+        <v>14</v>
+      </c>
+      <c t="s" r="D109">
+        <v>12</v>
+      </c>
+      <c t="s" r="E109">
         <v>14</v>
       </c>
       <c r="F109">
@@ -4128,24 +3839,24 @@
       <c r="H109">
         <v>15</v>
       </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c t="s" r="B110">
         <v>126</v>
       </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
+      <c t="s" r="C110">
+        <v>14</v>
+      </c>
+      <c t="s" r="D110">
+        <v>12</v>
+      </c>
+      <c t="s" r="E110">
         <v>12</v>
       </c>
       <c r="F110">
@@ -4157,24 +3868,24 @@
       <c r="H110">
         <v>30</v>
       </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c t="s" r="B111">
         <v>127</v>
       </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
+      <c t="s" r="C111">
+        <v>14</v>
+      </c>
+      <c t="s" r="D111">
+        <v>12</v>
+      </c>
+      <c t="s" r="E111">
         <v>12</v>
       </c>
       <c r="F111">
@@ -4186,24 +3897,24 @@
       <c r="H111">
         <v>30</v>
       </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c t="s" r="I111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c t="s" r="B112">
         <v>128</v>
       </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
+      <c t="s" r="C112">
+        <v>14</v>
+      </c>
+      <c t="s" r="D112">
+        <v>12</v>
+      </c>
+      <c t="s" r="E112">
         <v>12</v>
       </c>
       <c r="F112">
@@ -4215,24 +3926,24 @@
       <c r="H112">
         <v>2.5</v>
       </c>
-      <c r="I112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c t="s" r="B113">
         <v>129</v>
       </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
+      <c t="s" r="C113">
+        <v>14</v>
+      </c>
+      <c t="s" r="D113">
+        <v>12</v>
+      </c>
+      <c t="s" r="E113">
         <v>12</v>
       </c>
       <c r="F113">
@@ -4244,24 +3955,24 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c t="s" r="B114">
         <v>130</v>
       </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
+      <c t="s" r="C114">
+        <v>14</v>
+      </c>
+      <c t="s" r="D114">
+        <v>12</v>
+      </c>
+      <c t="s" r="E114">
         <v>12</v>
       </c>
       <c r="F114">
@@ -4273,24 +3984,24 @@
       <c r="H114">
         <v>30</v>
       </c>
-      <c r="I114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c t="s" r="B115">
         <v>131</v>
       </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
+      <c t="s" r="C115">
+        <v>14</v>
+      </c>
+      <c t="s" r="D115">
+        <v>12</v>
+      </c>
+      <c t="s" r="E115">
         <v>12</v>
       </c>
       <c r="F115">
@@ -4302,24 +4013,24 @@
       <c r="H115">
         <v>30</v>
       </c>
-      <c r="I115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c t="s" r="B116">
         <v>132</v>
       </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
+      <c t="s" r="C116">
+        <v>14</v>
+      </c>
+      <c t="s" r="D116">
+        <v>12</v>
+      </c>
+      <c t="s" r="E116">
         <v>12</v>
       </c>
       <c r="F116">
@@ -4331,24 +4042,24 @@
       <c r="H116">
         <v>30</v>
       </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c t="s" r="B117">
         <v>133</v>
       </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
+      <c t="s" r="C117">
+        <v>12</v>
+      </c>
+      <c t="s" r="D117">
+        <v>12</v>
+      </c>
+      <c t="s" r="E117">
         <v>12</v>
       </c>
       <c r="F117">
@@ -4360,24 +4071,24 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c t="s" r="B118">
         <v>134</v>
       </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
+      <c t="s" r="C118">
+        <v>14</v>
+      </c>
+      <c t="s" r="D118">
+        <v>12</v>
+      </c>
+      <c t="s" r="E118">
         <v>12</v>
       </c>
       <c r="F118">
@@ -4389,27 +4100,27 @@
       <c r="H118">
         <v>6000</v>
       </c>
-      <c r="I118" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" t="s">
+      <c t="s" r="I118">
+        <v>12</v>
+      </c>
+      <c t="s" r="J118">
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c t="s" r="B119">
         <v>136</v>
       </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
+      <c t="s" r="C119">
+        <v>14</v>
+      </c>
+      <c t="s" r="D119">
+        <v>12</v>
+      </c>
+      <c t="s" r="E119">
         <v>12</v>
       </c>
       <c r="F119">
@@ -4421,27 +4132,27 @@
       <c r="H119">
         <v>2.5</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
+      <c t="s" r="I119">
+        <v>14</v>
+      </c>
+      <c t="s" r="J119">
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c t="s" r="B120">
         <v>137</v>
       </c>
-      <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
+      <c t="s" r="C120">
+        <v>14</v>
+      </c>
+      <c t="s" r="D120">
+        <v>12</v>
+      </c>
+      <c t="s" r="E120">
         <v>12</v>
       </c>
       <c r="F120">
@@ -4453,24 +4164,24 @@
       <c r="H120">
         <v>10</v>
       </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c t="s" r="B121">
         <v>138</v>
       </c>
-      <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
+      <c t="s" r="C121">
+        <v>12</v>
+      </c>
+      <c t="s" r="D121">
+        <v>12</v>
+      </c>
+      <c t="s" r="E121">
         <v>12</v>
       </c>
       <c r="F121">
@@ -4482,24 +4193,24 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c t="s" r="B122">
         <v>139</v>
       </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
+      <c t="s" r="C122">
+        <v>14</v>
+      </c>
+      <c t="s" r="D122">
+        <v>12</v>
+      </c>
+      <c t="s" r="E122">
         <v>12</v>
       </c>
       <c r="F122">
@@ -4511,24 +4222,24 @@
       <c r="H122">
         <v>18000000</v>
       </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c t="s" r="B123">
         <v>140</v>
       </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
+      <c t="s" r="C123">
+        <v>14</v>
+      </c>
+      <c t="s" r="D123">
+        <v>12</v>
+      </c>
+      <c t="s" r="E123">
         <v>12</v>
       </c>
       <c r="F123">
@@ -4540,24 +4251,24 @@
       <c r="H123">
         <v>45</v>
       </c>
-      <c r="I123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c t="s" r="B124">
         <v>141</v>
       </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
+      <c t="s" r="C124">
+        <v>14</v>
+      </c>
+      <c t="s" r="D124">
+        <v>14</v>
+      </c>
+      <c t="s" r="E124">
         <v>12</v>
       </c>
       <c r="F124">
@@ -4569,24 +4280,24 @@
       <c r="H124">
         <v>45</v>
       </c>
-      <c r="I124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c t="s" r="B125">
         <v>142</v>
       </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
+      <c t="s" r="C125">
+        <v>14</v>
+      </c>
+      <c t="s" r="D125">
+        <v>12</v>
+      </c>
+      <c t="s" r="E125">
         <v>12</v>
       </c>
       <c r="F125">
@@ -4598,24 +4309,24 @@
       <c r="H125">
         <v>1.5</v>
       </c>
-      <c r="I125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c t="s" r="B126">
         <v>143</v>
       </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
+      <c t="s" r="C126">
+        <v>14</v>
+      </c>
+      <c t="s" r="D126">
+        <v>12</v>
+      </c>
+      <c t="s" r="E126">
         <v>12</v>
       </c>
       <c r="F126">
@@ -4627,24 +4338,24 @@
       <c r="H126">
         <v>1.5</v>
       </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c t="s" r="B127">
         <v>144</v>
       </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
+      <c t="s" r="C127">
+        <v>14</v>
+      </c>
+      <c t="s" r="D127">
+        <v>12</v>
+      </c>
+      <c t="s" r="E127">
         <v>14</v>
       </c>
       <c r="F127">
@@ -4656,24 +4367,24 @@
       <c r="H127">
         <v>15</v>
       </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c t="s" r="B128">
         <v>145</v>
       </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
+      <c t="s" r="C128">
+        <v>14</v>
+      </c>
+      <c t="s" r="D128">
+        <v>12</v>
+      </c>
+      <c t="s" r="E128">
         <v>14</v>
       </c>
       <c r="F128">
@@ -4685,24 +4396,24 @@
       <c r="H128">
         <v>15</v>
       </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c t="s" r="B129">
         <v>146</v>
       </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
+      <c t="s" r="C129">
+        <v>14</v>
+      </c>
+      <c t="s" r="D129">
+        <v>12</v>
+      </c>
+      <c t="s" r="E129">
         <v>12</v>
       </c>
       <c r="F129">
@@ -4714,24 +4425,24 @@
       <c r="H129">
         <v>15</v>
       </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c t="s" r="B130">
         <v>147</v>
       </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
+      <c t="s" r="C130">
+        <v>14</v>
+      </c>
+      <c t="s" r="D130">
+        <v>12</v>
+      </c>
+      <c t="s" r="E130">
         <v>12</v>
       </c>
       <c r="F130">
@@ -4743,24 +4454,24 @@
       <c r="H130">
         <v>30</v>
       </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c t="s" r="B131">
         <v>148</v>
       </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
+      <c t="s" r="C131">
+        <v>14</v>
+      </c>
+      <c t="s" r="D131">
+        <v>12</v>
+      </c>
+      <c t="s" r="E131">
         <v>12</v>
       </c>
       <c r="F131">
@@ -4772,24 +4483,24 @@
       <c r="H131">
         <v>15</v>
       </c>
-      <c r="I131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c t="s" r="B132">
         <v>149</v>
       </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
+      <c t="s" r="C132">
+        <v>14</v>
+      </c>
+      <c t="s" r="D132">
+        <v>12</v>
+      </c>
+      <c t="s" r="E132">
         <v>12</v>
       </c>
       <c r="F132">
@@ -4801,27 +4512,27 @@
       <c r="H132">
         <v>3000</v>
       </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
+      <c t="s" r="I132">
+        <v>14</v>
+      </c>
+      <c t="s" r="J132">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c t="s" r="B133">
         <v>151</v>
       </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
+      <c t="s" r="C133">
+        <v>12</v>
+      </c>
+      <c t="s" r="D133">
+        <v>12</v>
+      </c>
+      <c t="s" r="E133">
         <v>12</v>
       </c>
       <c r="F133">
@@ -4833,24 +4544,24 @@
       <c r="H133">
         <v>2.5</v>
       </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c t="s" r="B134">
         <v>152</v>
       </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
+      <c t="s" r="C134">
+        <v>12</v>
+      </c>
+      <c t="s" r="D134">
+        <v>12</v>
+      </c>
+      <c t="s" r="E134">
         <v>12</v>
       </c>
       <c r="F134">
@@ -4862,24 +4573,24 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c t="s" r="B135">
         <v>153</v>
       </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
+      <c t="s" r="C135">
+        <v>14</v>
+      </c>
+      <c t="s" r="D135">
+        <v>12</v>
+      </c>
+      <c t="s" r="E135">
         <v>12</v>
       </c>
       <c r="F135">
@@ -4891,24 +4602,24 @@
       <c r="H135">
         <v>30</v>
       </c>
-      <c r="I135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c t="s" r="B136">
         <v>154</v>
       </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
+      <c t="s" r="C136">
+        <v>14</v>
+      </c>
+      <c t="s" r="D136">
+        <v>12</v>
+      </c>
+      <c t="s" r="E136">
         <v>14</v>
       </c>
       <c r="F136">
@@ -4920,24 +4631,24 @@
       <c r="H136">
         <v>15</v>
       </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c t="s" r="B137">
         <v>155</v>
       </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
+      <c t="s" r="C137">
+        <v>14</v>
+      </c>
+      <c t="s" r="D137">
+        <v>12</v>
+      </c>
+      <c t="s" r="E137">
         <v>14</v>
       </c>
       <c r="F137">
@@ -4949,24 +4660,24 @@
       <c r="H137">
         <v>15</v>
       </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c t="s" r="B138">
         <v>156</v>
       </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
+      <c t="s" r="C138">
+        <v>14</v>
+      </c>
+      <c t="s" r="D138">
+        <v>12</v>
+      </c>
+      <c t="s" r="E138">
         <v>14</v>
       </c>
       <c r="F138">
@@ -4978,24 +4689,24 @@
       <c r="H138">
         <v>15</v>
       </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c t="s" r="B139">
         <v>157</v>
       </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
+      <c t="s" r="C139">
+        <v>14</v>
+      </c>
+      <c t="s" r="D139">
+        <v>12</v>
+      </c>
+      <c t="s" r="E139">
         <v>12</v>
       </c>
       <c r="F139">
@@ -5007,27 +4718,27 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
-        <v>12</v>
-      </c>
-      <c r="J139" t="s">
+      <c t="s" r="I139">
+        <v>12</v>
+      </c>
+      <c t="s" r="J139">
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c t="s" r="B140">
         <v>159</v>
       </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
+      <c t="s" r="C140">
+        <v>14</v>
+      </c>
+      <c t="s" r="D140">
+        <v>12</v>
+      </c>
+      <c t="s" r="E140">
         <v>12</v>
       </c>
       <c r="F140">
@@ -5039,27 +4750,27 @@
       <c r="H140">
         <v>15</v>
       </c>
-      <c r="I140" t="s">
-        <v>12</v>
-      </c>
-      <c r="J140" t="s">
+      <c t="s" r="I140">
+        <v>12</v>
+      </c>
+      <c t="s" r="J140">
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c t="s" r="B141">
         <v>160</v>
       </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
+      <c t="s" r="C141">
+        <v>14</v>
+      </c>
+      <c t="s" r="D141">
+        <v>12</v>
+      </c>
+      <c t="s" r="E141">
         <v>12</v>
       </c>
       <c r="F141">
@@ -5071,24 +4782,24 @@
       <c r="H141">
         <v>30</v>
       </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c t="s" r="B142">
         <v>161</v>
       </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
+      <c t="s" r="C142">
+        <v>14</v>
+      </c>
+      <c t="s" r="D142">
+        <v>12</v>
+      </c>
+      <c t="s" r="E142">
         <v>12</v>
       </c>
       <c r="F142">
@@ -5100,24 +4811,24 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c t="s" r="B143">
         <v>162</v>
       </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
+      <c t="s" r="C143">
+        <v>12</v>
+      </c>
+      <c t="s" r="D143">
+        <v>12</v>
+      </c>
+      <c t="s" r="E143">
         <v>12</v>
       </c>
       <c r="F143">
@@ -5129,24 +4840,24 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c t="s" r="B144">
         <v>163</v>
       </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
+      <c t="s" r="C144">
+        <v>12</v>
+      </c>
+      <c t="s" r="D144">
+        <v>12</v>
+      </c>
+      <c t="s" r="E144">
         <v>12</v>
       </c>
       <c r="F144">
@@ -5158,24 +4869,24 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c t="s" r="B145">
         <v>164</v>
       </c>
-      <c r="C145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
+      <c t="s" r="C145">
+        <v>12</v>
+      </c>
+      <c t="s" r="D145">
+        <v>12</v>
+      </c>
+      <c t="s" r="E145">
         <v>12</v>
       </c>
       <c r="F145">
@@ -5187,24 +4898,24 @@
       <c r="H145">
         <v>2.5</v>
       </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c t="s" r="B146">
         <v>165</v>
       </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" t="s">
+      <c t="s" r="C146">
+        <v>14</v>
+      </c>
+      <c t="s" r="D146">
+        <v>12</v>
+      </c>
+      <c t="s" r="E146">
         <v>12</v>
       </c>
       <c r="F146">
@@ -5216,27 +4927,27 @@
       <c r="H146">
         <v>5</v>
       </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
+      <c t="s" r="I146">
+        <v>14</v>
+      </c>
+      <c t="s" r="J146">
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c t="s" r="B147">
         <v>167</v>
       </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
+      <c t="s" r="C147">
+        <v>14</v>
+      </c>
+      <c t="s" r="D147">
+        <v>14</v>
+      </c>
+      <c t="s" r="E147">
         <v>12</v>
       </c>
       <c r="F147">
@@ -5248,24 +4959,24 @@
       <c r="H147">
         <v>6000</v>
       </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c t="s" r="B148">
         <v>168</v>
       </c>
-      <c r="C148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" t="s">
+      <c t="s" r="C148">
+        <v>14</v>
+      </c>
+      <c t="s" r="D148">
+        <v>12</v>
+      </c>
+      <c t="s" r="E148">
         <v>12</v>
       </c>
       <c r="F148">
@@ -5277,27 +4988,27 @@
       <c r="H148">
         <v>12.5</v>
       </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
+      <c t="s" r="I148">
+        <v>14</v>
+      </c>
+      <c t="s" r="J148">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c t="s" r="B149">
         <v>169</v>
       </c>
-      <c r="C149" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" t="s">
+      <c t="s" r="C149">
+        <v>12</v>
+      </c>
+      <c t="s" r="D149">
+        <v>12</v>
+      </c>
+      <c t="s" r="E149">
         <v>12</v>
       </c>
       <c r="F149">
@@ -5309,24 +5020,24 @@
       <c r="H149">
         <v>2.5</v>
       </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I149">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c t="s" r="B150">
         <v>170</v>
       </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
+      <c t="s" r="C150">
+        <v>12</v>
+      </c>
+      <c t="s" r="D150">
+        <v>12</v>
+      </c>
+      <c t="s" r="E150">
         <v>12</v>
       </c>
       <c r="F150">
@@ -5338,24 +5049,24 @@
       <c r="H150">
         <v>2.5</v>
       </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c t="s" r="B151">
         <v>171</v>
       </c>
-      <c r="C151" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
+      <c t="s" r="C151">
+        <v>14</v>
+      </c>
+      <c t="s" r="D151">
+        <v>12</v>
+      </c>
+      <c t="s" r="E151">
         <v>12</v>
       </c>
       <c r="F151">
@@ -5367,24 +5078,24 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c t="s" r="B152">
         <v>172</v>
       </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
+      <c t="s" r="C152">
+        <v>14</v>
+      </c>
+      <c t="s" r="D152">
+        <v>12</v>
+      </c>
+      <c t="s" r="E152">
         <v>12</v>
       </c>
       <c r="F152">
@@ -5396,24 +5107,24 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c t="s" r="B153">
         <v>173</v>
       </c>
-      <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
+      <c t="s" r="C153">
+        <v>14</v>
+      </c>
+      <c t="s" r="D153">
+        <v>12</v>
+      </c>
+      <c t="s" r="E153">
         <v>12</v>
       </c>
       <c r="F153">
@@ -5425,27 +5136,27 @@
       <c r="H153">
         <v>1</v>
       </c>
-      <c r="I153" t="s">
-        <v>12</v>
-      </c>
-      <c r="J153" t="s">
+      <c t="s" r="I153">
+        <v>12</v>
+      </c>
+      <c t="s" r="J153">
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c t="s" r="B154">
         <v>175</v>
       </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" t="s">
+      <c t="s" r="C154">
+        <v>14</v>
+      </c>
+      <c t="s" r="D154">
+        <v>12</v>
+      </c>
+      <c t="s" r="E154">
         <v>12</v>
       </c>
       <c r="F154">
@@ -5457,24 +5168,24 @@
       <c r="H154">
         <v>30</v>
       </c>
-      <c r="I154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c t="s" r="B155">
         <v>176</v>
       </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
+      <c t="s" r="C155">
+        <v>14</v>
+      </c>
+      <c t="s" r="D155">
+        <v>12</v>
+      </c>
+      <c t="s" r="E155">
         <v>12</v>
       </c>
       <c r="F155">
@@ -5486,24 +5197,24 @@
       <c r="H155">
         <v>15</v>
       </c>
-      <c r="I155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c t="s" r="B156">
         <v>177</v>
       </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" t="s">
+      <c t="s" r="C156">
+        <v>14</v>
+      </c>
+      <c t="s" r="D156">
+        <v>12</v>
+      </c>
+      <c t="s" r="E156">
         <v>12</v>
       </c>
       <c r="F156">
@@ -5515,27 +5226,27 @@
       <c r="H156">
         <v>15</v>
       </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
+      <c t="s" r="I156">
+        <v>14</v>
+      </c>
+      <c t="s" r="J156">
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c t="s" r="B157">
         <v>178</v>
       </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" t="s">
+      <c t="s" r="C157">
+        <v>14</v>
+      </c>
+      <c t="s" r="D157">
+        <v>12</v>
+      </c>
+      <c t="s" r="E157">
         <v>12</v>
       </c>
       <c r="F157">
@@ -5547,24 +5258,24 @@
       <c r="H157">
         <v>4</v>
       </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
+      <c t="s" r="B158">
         <v>179</v>
       </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" t="s">
+      <c t="s" r="C158">
+        <v>14</v>
+      </c>
+      <c t="s" r="D158">
+        <v>12</v>
+      </c>
+      <c t="s" r="E158">
         <v>12</v>
       </c>
       <c r="F158">
@@ -5576,24 +5287,24 @@
       <c r="H158">
         <v>30</v>
       </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c t="s" r="B159">
         <v>180</v>
       </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
+      <c t="s" r="C159">
+        <v>12</v>
+      </c>
+      <c t="s" r="D159">
+        <v>12</v>
+      </c>
+      <c t="s" r="E159">
         <v>12</v>
       </c>
       <c r="F159">
@@ -5605,24 +5316,24 @@
       <c r="H159">
         <v>3.5</v>
       </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c t="s" r="I159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c t="s" r="B160">
         <v>181</v>
       </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" t="s">
+      <c t="s" r="C160">
+        <v>14</v>
+      </c>
+      <c t="s" r="D160">
+        <v>12</v>
+      </c>
+      <c t="s" r="E160">
         <v>12</v>
       </c>
       <c r="F160">
@@ -5634,14 +5345,13 @@
       <c r="H160">
         <v>30</v>
       </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
+      <c t="s" r="I160">
+        <v>14</v>
+      </c>
+      <c t="s" r="J160">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>

--- a/Reference/Minecraft Block Values.xlsx
+++ b/Reference/Minecraft Block Values.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="183">
   <si>
     <t>Type</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>NBT Data</t>
+  </si>
+  <si>
+    <t>Diffuse</t>
   </si>
   <si>
     <t>Flow Speed (b/tick)</t>
@@ -627,7 +630,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" customWidth="1" max="2" width="23.43"/>
-    <col min="11" customWidth="1" max="11" width="20.86"/>
+    <col min="12" customWidth="1" max="12" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -664,22 +667,25 @@
       <c t="s" s="1" r="K1">
         <v>10</v>
       </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
       <c t="s" r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c t="s" r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -691,7 +697,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I2">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K2">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -699,16 +708,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -720,7 +729,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I3">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K3">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -728,16 +740,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -749,7 +761,10 @@
         <v>3</v>
       </c>
       <c t="s" r="I4">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K4">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -757,16 +772,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -778,7 +793,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I5">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K5">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -786,16 +804,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c t="s" r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -807,7 +825,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I6">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K6">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -815,16 +836,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="C7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -836,7 +857,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I7">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K7">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -844,16 +868,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -865,7 +889,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I8">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K8">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +900,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -894,7 +921,10 @@
         <v>18000000</v>
       </c>
       <c t="s" r="I9">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K9">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -902,16 +932,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c t="s" r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -923,9 +953,12 @@
         <v>500</v>
       </c>
       <c t="s" r="I10">
-        <v>14</v>
-      </c>
-      <c r="K10">
+        <v>15</v>
+      </c>
+      <c t="s" r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
         <f>4/20</f>
         <v>0.2</v>
       </c>
@@ -935,16 +968,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -956,9 +989,12 @@
         <v>500</v>
       </c>
       <c t="s" r="I11">
-        <v>12</v>
-      </c>
-      <c r="K11">
+        <v>13</v>
+      </c>
+      <c t="s" r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
         <f>4/20</f>
         <v>0.2</v>
       </c>
@@ -968,16 +1004,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -989,9 +1025,12 @@
         <v>0</v>
       </c>
       <c t="s" r="I12">
-        <v>14</v>
-      </c>
-      <c r="K12">
+        <v>15</v>
+      </c>
+      <c t="s" r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
         <f>1/30</f>
         <v>0.033333333333333</v>
       </c>
@@ -1001,16 +1040,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1022,9 +1061,12 @@
         <v>500</v>
       </c>
       <c t="s" r="I13">
-        <v>12</v>
-      </c>
-      <c r="K13">
+        <v>13</v>
+      </c>
+      <c t="s" r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
         <f>1/30</f>
         <v>0.033333333333333</v>
       </c>
@@ -1034,16 +1076,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="E14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -1055,7 +1097,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I14">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K14">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1063,16 +1108,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="E15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -1084,7 +1129,10 @@
         <v>3</v>
       </c>
       <c t="s" r="I15">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K15">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1092,16 +1140,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1113,7 +1161,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I16">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K16">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1121,16 +1172,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1142,7 +1193,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I17">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K17">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1150,16 +1204,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -1171,7 +1225,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I18">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K18">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1179,16 +1236,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="C19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -1200,7 +1257,10 @@
         <v>10</v>
       </c>
       <c t="s" r="I19">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K19">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1208,19 +1268,19 @@
         <v>18</v>
       </c>
       <c t="s" r="B20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1229,7 +1289,10 @@
         <v>1</v>
       </c>
       <c t="s" r="I20">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K20">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1237,16 +1300,16 @@
         <v>19</v>
       </c>
       <c t="s" r="B21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="C21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -1258,7 +1321,10 @@
         <v>3</v>
       </c>
       <c t="s" r="I21">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K21">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1266,16 +1332,16 @@
         <v>20</v>
       </c>
       <c t="s" r="B22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="C22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1287,7 +1353,10 @@
         <v>1.5</v>
       </c>
       <c t="s" r="I22">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K22">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1295,16 +1364,16 @@
         <v>21</v>
       </c>
       <c t="s" r="B23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -1316,7 +1385,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I23">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K23">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1324,16 +1396,16 @@
         <v>22</v>
       </c>
       <c t="s" r="B24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="C24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -1345,7 +1417,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I24">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K24">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1353,16 +1428,16 @@
         <v>23</v>
       </c>
       <c t="s" r="B25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="C25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -1374,10 +1449,13 @@
         <v>17.5</v>
       </c>
       <c t="s" r="I25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J25">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c t="s" r="K25">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1385,16 +1463,16 @@
         <v>24</v>
       </c>
       <c t="s" r="B26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="C26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -1406,7 +1484,10 @@
         <v>4</v>
       </c>
       <c t="s" r="I26">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K26">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1414,16 +1495,16 @@
         <v>25</v>
       </c>
       <c t="s" r="B27">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="C27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -1435,7 +1516,10 @@
         <v>4</v>
       </c>
       <c t="s" r="I27">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K27">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1443,16 +1527,16 @@
         <v>26</v>
       </c>
       <c t="s" r="B28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1464,10 +1548,13 @@
         <v>1</v>
       </c>
       <c t="s" r="I28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J28">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c t="s" r="K28">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1475,16 +1562,16 @@
         <v>27</v>
       </c>
       <c t="s" r="B29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="C29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1496,7 +1583,10 @@
         <v>3.5</v>
       </c>
       <c t="s" r="I29">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K29">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1504,16 +1594,16 @@
         <v>28</v>
       </c>
       <c t="s" r="B30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="C30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1525,7 +1615,10 @@
         <v>3.5</v>
       </c>
       <c t="s" r="I30">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K30">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1533,16 +1626,16 @@
         <v>29</v>
       </c>
       <c t="s" r="B31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1554,7 +1647,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I31">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K31">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1658,16 @@
         <v>30</v>
       </c>
       <c t="s" r="B32">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="C32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1583,7 +1679,10 @@
         <v>20</v>
       </c>
       <c t="s" r="I32">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K32">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1591,16 +1690,16 @@
         <v>31</v>
       </c>
       <c t="s" r="B33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="C33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1612,7 +1711,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I33">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K33">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1620,16 +1722,16 @@
         <v>32</v>
       </c>
       <c t="s" r="B34">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="C34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="E34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1641,7 +1743,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I34">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K34">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1649,16 +1754,16 @@
         <v>33</v>
       </c>
       <c t="s" r="B35">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1670,7 +1775,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I35">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K35">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1678,16 +1786,16 @@
         <v>34</v>
       </c>
       <c t="s" r="B36">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="C36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1699,7 +1807,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I36">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K36">
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1707,16 +1818,16 @@
         <v>35</v>
       </c>
       <c t="s" r="B37">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>15</v>
@@ -1728,7 +1839,10 @@
         <v>4</v>
       </c>
       <c t="s" r="I37">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K37">
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1736,16 +1850,16 @@
         <v>36</v>
       </c>
       <c t="s" r="B38">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="C38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1757,10 +1871,13 @@
         <v>0</v>
       </c>
       <c t="s" r="I38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J38">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c t="s" r="K38">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1768,16 +1885,16 @@
         <v>37</v>
       </c>
       <c t="s" r="B39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="C39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1789,7 +1906,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I39">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K39">
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1797,16 +1917,16 @@
         <v>38</v>
       </c>
       <c t="s" r="B40">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="C40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1818,7 +1938,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I40">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K40">
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1826,16 +1949,16 @@
         <v>39</v>
       </c>
       <c t="s" r="B41">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="C41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1847,7 +1970,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I41">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K41">
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1855,16 +1981,16 @@
         <v>40</v>
       </c>
       <c t="s" r="B42">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="C42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1876,7 +2002,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I42">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K42">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1884,16 +2013,16 @@
         <v>41</v>
       </c>
       <c t="s" r="B43">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="C43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>15</v>
@@ -1905,7 +2034,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I43">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K43">
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1913,16 +2045,16 @@
         <v>42</v>
       </c>
       <c t="s" r="B44">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="C44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>15</v>
@@ -1934,7 +2066,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I44">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K44">
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1942,16 +2077,16 @@
         <v>43</v>
       </c>
       <c t="s" r="B45">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="C45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>15</v>
@@ -1963,7 +2098,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I45">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K45">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1971,16 +2109,16 @@
         <v>44</v>
       </c>
       <c t="s" r="B46">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="C46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1992,7 +2130,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I46">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K46">
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2000,16 +2141,16 @@
         <v>45</v>
       </c>
       <c t="s" r="B47">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="C47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2021,7 +2162,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I47">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K47">
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -2029,16 +2173,16 @@
         <v>46</v>
       </c>
       <c t="s" r="B48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="C48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -2050,7 +2194,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I48">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K48">
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2058,16 +2205,16 @@
         <v>47</v>
       </c>
       <c t="s" r="B49">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="C49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <v>15</v>
@@ -2079,7 +2226,10 @@
         <v>7.5</v>
       </c>
       <c t="s" r="I49">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K49">
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -2087,16 +2237,16 @@
         <v>48</v>
       </c>
       <c t="s" r="B50">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="C50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>15</v>
@@ -2108,7 +2258,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I50">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K50">
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -2116,16 +2269,16 @@
         <v>49</v>
       </c>
       <c t="s" r="B51">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="C51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>15</v>
@@ -2137,7 +2290,10 @@
         <v>6000</v>
       </c>
       <c t="s" r="I51">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K51">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -2145,16 +2301,16 @@
         <v>50</v>
       </c>
       <c t="s" r="B52">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="C52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2166,7 +2322,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I52">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K52">
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -2174,16 +2333,16 @@
         <v>51</v>
       </c>
       <c t="s" r="B53">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="C53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2195,7 +2354,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I53">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K53">
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2203,16 +2365,16 @@
         <v>52</v>
       </c>
       <c t="s" r="B54">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="C54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <v>15</v>
@@ -2224,10 +2386,13 @@
         <v>25</v>
       </c>
       <c t="s" r="I54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J54">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c t="s" r="K54">
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2235,16 +2400,16 @@
         <v>53</v>
       </c>
       <c t="s" r="B55">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="C55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2256,7 +2421,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I55">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K55">
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2264,16 +2432,16 @@
         <v>54</v>
       </c>
       <c t="s" r="B56">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="C56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2285,10 +2453,13 @@
         <v>12.5</v>
       </c>
       <c t="s" r="I56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J56">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c t="s" r="K56">
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -2296,16 +2467,16 @@
         <v>55</v>
       </c>
       <c t="s" r="B57">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="C57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2317,7 +2488,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I57">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K57">
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -2325,16 +2499,16 @@
         <v>56</v>
       </c>
       <c t="s" r="B58">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="C58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>15</v>
@@ -2346,7 +2520,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I58">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K58">
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2354,16 +2531,16 @@
         <v>57</v>
       </c>
       <c t="s" r="B59">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="C59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -2375,7 +2552,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I59">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K59">
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -2383,16 +2563,16 @@
         <v>58</v>
       </c>
       <c t="s" r="B60">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="C60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>15</v>
@@ -2404,7 +2584,10 @@
         <v>12.5</v>
       </c>
       <c t="s" r="I60">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K60">
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -2412,16 +2595,16 @@
         <v>59</v>
       </c>
       <c t="s" r="B61">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="C61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2433,7 +2616,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I61">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K61">
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -2441,16 +2627,16 @@
         <v>60</v>
       </c>
       <c t="s" r="B62">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="C62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62">
         <v>15</v>
@@ -2462,7 +2648,10 @@
         <v>3</v>
       </c>
       <c t="s" r="I62">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K62">
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -2470,16 +2659,16 @@
         <v>61</v>
       </c>
       <c t="s" r="B63">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="C63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>15</v>
@@ -2491,10 +2680,13 @@
         <v>17.5</v>
       </c>
       <c t="s" r="I63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J63">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c t="s" r="K63">
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -2502,16 +2694,16 @@
         <v>62</v>
       </c>
       <c t="s" r="B64">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="C64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>15</v>
@@ -2523,10 +2715,13 @@
         <v>17.5</v>
       </c>
       <c t="s" r="I64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J64">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c t="s" r="K64">
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -2534,16 +2729,16 @@
         <v>63</v>
       </c>
       <c t="s" r="B65">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="C65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2555,10 +2750,13 @@
         <v>5</v>
       </c>
       <c t="s" r="I65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J65">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c t="s" r="K65">
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -2566,16 +2764,16 @@
         <v>64</v>
       </c>
       <c t="s" r="B66">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="C66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2587,7 +2785,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I66">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K66">
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -2595,16 +2796,16 @@
         <v>65</v>
       </c>
       <c t="s" r="B67">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="C67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2616,7 +2817,10 @@
         <v>2</v>
       </c>
       <c t="s" r="I67">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K67">
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -2624,16 +2828,16 @@
         <v>66</v>
       </c>
       <c t="s" r="B68">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="C68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2645,7 +2849,10 @@
         <v>3.5</v>
       </c>
       <c t="s" r="I68">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K68">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -2653,16 +2860,16 @@
         <v>67</v>
       </c>
       <c t="s" r="B69">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="C69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2674,7 +2881,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I69">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K69">
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -2682,16 +2892,16 @@
         <v>68</v>
       </c>
       <c t="s" r="B70">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="C70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2703,10 +2913,13 @@
         <v>5</v>
       </c>
       <c t="s" r="I70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J70">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c t="s" r="K70">
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -2714,16 +2927,16 @@
         <v>69</v>
       </c>
       <c t="s" r="B71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="C71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2735,7 +2948,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I71">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K71">
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -2743,16 +2959,16 @@
         <v>70</v>
       </c>
       <c t="s" r="B72">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="C72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2764,7 +2980,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I72">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K72">
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -2772,16 +2991,16 @@
         <v>71</v>
       </c>
       <c t="s" r="B73">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="C73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2793,7 +3012,10 @@
         <v>25</v>
       </c>
       <c t="s" r="I73">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K73">
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -2801,16 +3023,16 @@
         <v>72</v>
       </c>
       <c t="s" r="B74">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="C74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2822,7 +3044,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I74">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K74">
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2830,16 +3055,16 @@
         <v>73</v>
       </c>
       <c t="s" r="B75">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="C75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75">
         <v>15</v>
@@ -2851,7 +3076,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I75">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K75">
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2859,16 +3087,16 @@
         <v>74</v>
       </c>
       <c t="s" r="B76">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="C76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>15</v>
@@ -2880,7 +3108,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I76">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K76">
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2888,16 +3119,16 @@
         <v>75</v>
       </c>
       <c t="s" r="B77">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="C77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2909,7 +3140,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I77">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K77">
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -2917,16 +3151,16 @@
         <v>76</v>
       </c>
       <c t="s" r="B78">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="C78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2938,7 +3172,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I78">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K78">
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2946,16 +3183,16 @@
         <v>77</v>
       </c>
       <c t="s" r="B79">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="C79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2967,7 +3204,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I79">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K79">
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -2975,16 +3215,16 @@
         <v>78</v>
       </c>
       <c t="s" r="B80">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="C80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2996,7 +3236,10 @@
         <v>0.5</v>
       </c>
       <c t="s" r="I80">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K80">
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -3004,16 +3247,16 @@
         <v>79</v>
       </c>
       <c t="s" r="B81">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="C81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>13</v>
@@ -3025,7 +3268,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I81">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K81">
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -3033,16 +3279,16 @@
         <v>80</v>
       </c>
       <c t="s" r="B82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="C82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>15</v>
@@ -3054,7 +3300,10 @@
         <v>1</v>
       </c>
       <c t="s" r="I82">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K82">
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -3062,16 +3311,16 @@
         <v>81</v>
       </c>
       <c t="s" r="B83">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3083,7 +3332,10 @@
         <v>2</v>
       </c>
       <c t="s" r="I83">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K83">
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -3091,16 +3343,16 @@
         <v>82</v>
       </c>
       <c t="s" r="B84">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="C84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84">
         <v>15</v>
@@ -3112,7 +3364,10 @@
         <v>3</v>
       </c>
       <c t="s" r="I84">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K84">
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -3120,16 +3375,16 @@
         <v>83</v>
       </c>
       <c t="s" r="B85">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="C85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3141,7 +3396,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I85">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K85">
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -3149,16 +3407,16 @@
         <v>84</v>
       </c>
       <c t="s" r="B86">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="C86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86">
         <v>15</v>
@@ -3170,10 +3428,13 @@
         <v>30</v>
       </c>
       <c t="s" r="I86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J86">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c t="s" r="K86">
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -3181,16 +3442,16 @@
         <v>85</v>
       </c>
       <c t="s" r="B87">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="C87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3202,7 +3463,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I87">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K87">
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -3210,16 +3474,16 @@
         <v>86</v>
       </c>
       <c t="s" r="B88">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="C88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <v>15</v>
@@ -3231,7 +3495,10 @@
         <v>5</v>
       </c>
       <c t="s" r="I88">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K88">
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -3239,16 +3506,16 @@
         <v>87</v>
       </c>
       <c t="s" r="B89">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="C89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>15</v>
@@ -3260,7 +3527,10 @@
         <v>2</v>
       </c>
       <c t="s" r="I89">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K89">
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -3268,16 +3538,16 @@
         <v>88</v>
       </c>
       <c t="s" r="B90">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="C90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>15</v>
@@ -3289,7 +3559,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I90">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K90">
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -3297,16 +3570,16 @@
         <v>89</v>
       </c>
       <c t="s" r="B91">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="C91">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3318,7 +3591,10 @@
         <v>1.5</v>
       </c>
       <c t="s" r="I91">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K91">
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -3326,16 +3602,16 @@
         <v>90</v>
       </c>
       <c t="s" r="B92">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="C92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3347,7 +3623,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I92">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K92">
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -3355,16 +3634,16 @@
         <v>91</v>
       </c>
       <c t="s" r="B93">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="C93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93">
         <v>15</v>
@@ -3376,7 +3655,10 @@
         <v>5</v>
       </c>
       <c t="s" r="I93">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K93">
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -3384,16 +3666,16 @@
         <v>92</v>
       </c>
       <c t="s" r="B94">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="C94">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3405,7 +3687,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I94">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K94">
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -3413,16 +3698,16 @@
         <v>93</v>
       </c>
       <c t="s" r="B95">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="C95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D95">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E95">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95">
         <v>15</v>
@@ -3434,7 +3719,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I95">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K95">
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -3442,16 +3730,16 @@
         <v>94</v>
       </c>
       <c t="s" r="B96">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="C96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D96">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E96">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F96">
         <v>15</v>
@@ -3463,7 +3751,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I96">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K96">
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -3471,16 +3762,16 @@
         <v>95</v>
       </c>
       <c t="s" r="B97">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="C97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D97">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>15</v>
@@ -3492,7 +3783,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I97">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K97">
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -3500,16 +3794,16 @@
         <v>96</v>
       </c>
       <c t="s" r="B98">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="C98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D98">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3521,7 +3815,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I98">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K98">
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -3529,16 +3826,16 @@
         <v>97</v>
       </c>
       <c t="s" r="B99">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="C99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99">
         <v>15</v>
@@ -3550,7 +3847,10 @@
         <v>3.75</v>
       </c>
       <c t="s" r="I99">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K99">
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -3558,16 +3858,16 @@
         <v>98</v>
       </c>
       <c t="s" r="B100">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="C100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>15</v>
@@ -3579,7 +3879,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I100">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K100">
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -3587,16 +3890,16 @@
         <v>99</v>
       </c>
       <c t="s" r="B101">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="C101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D101">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101">
         <v>15</v>
@@ -3608,7 +3911,10 @@
         <v>1</v>
       </c>
       <c t="s" r="I101">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K101">
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -3616,16 +3922,16 @@
         <v>100</v>
       </c>
       <c t="s" r="B102">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="C102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>15</v>
@@ -3637,7 +3943,10 @@
         <v>1</v>
       </c>
       <c t="s" r="I102">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K102">
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -3645,16 +3954,16 @@
         <v>101</v>
       </c>
       <c t="s" r="B103">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="C103">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3666,7 +3975,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I103">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K103">
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -3674,16 +3986,16 @@
         <v>102</v>
       </c>
       <c t="s" r="B104">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="C104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3695,7 +4007,10 @@
         <v>1.5</v>
       </c>
       <c t="s" r="I104">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K104">
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -3703,16 +4018,16 @@
         <v>103</v>
       </c>
       <c t="s" r="B105">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="C105">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105">
         <v>15</v>
@@ -3724,7 +4039,10 @@
         <v>5</v>
       </c>
       <c t="s" r="I105">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K105">
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -3732,16 +4050,16 @@
         <v>104</v>
       </c>
       <c t="s" r="B106">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="C106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3753,7 +4071,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I106">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K106">
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -3761,16 +4082,16 @@
         <v>105</v>
       </c>
       <c t="s" r="B107">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="C107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3782,7 +4103,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I107">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K107">
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -3790,16 +4114,16 @@
         <v>106</v>
       </c>
       <c t="s" r="B108">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="C108">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D108">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E108">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3811,7 +4135,10 @@
         <v>1</v>
       </c>
       <c t="s" r="I108">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K108">
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -3819,16 +4146,16 @@
         <v>107</v>
       </c>
       <c t="s" r="B109">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="C109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D109">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3840,7 +4167,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I109">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K109">
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -3848,16 +4178,16 @@
         <v>108</v>
       </c>
       <c t="s" r="B110">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="C110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3869,7 +4199,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I110">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K110">
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -3877,16 +4210,16 @@
         <v>109</v>
       </c>
       <c t="s" r="B111">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="C111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3898,7 +4231,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I111">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K111">
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -3906,16 +4242,16 @@
         <v>110</v>
       </c>
       <c t="s" r="B112">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="C112">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -3927,7 +4263,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I112">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K112">
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -3935,16 +4274,16 @@
         <v>111</v>
       </c>
       <c t="s" r="B113">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="C113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3956,7 +4295,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I113">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K113">
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -3964,16 +4306,16 @@
         <v>112</v>
       </c>
       <c t="s" r="B114">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="C114">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>15</v>
@@ -3985,7 +4327,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I114">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K114">
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -3993,16 +4338,16 @@
         <v>113</v>
       </c>
       <c t="s" r="B115">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="C115">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D115">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E115">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4014,7 +4359,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I115">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K115">
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -4022,16 +4370,16 @@
         <v>114</v>
       </c>
       <c t="s" r="B116">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="C116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4043,7 +4391,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I116">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K116">
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -4051,16 +4402,16 @@
         <v>115</v>
       </c>
       <c t="s" r="B117">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="C117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4072,7 +4423,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I117">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K117">
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -4080,16 +4434,16 @@
         <v>116</v>
       </c>
       <c t="s" r="B118">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="C118">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4101,10 +4455,13 @@
         <v>6000</v>
       </c>
       <c t="s" r="I118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J118">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c t="s" r="K118">
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -4112,16 +4469,16 @@
         <v>117</v>
       </c>
       <c t="s" r="B119">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="C119">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4133,10 +4490,13 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I119">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J119">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c t="s" r="K119">
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -4144,16 +4504,16 @@
         <v>118</v>
       </c>
       <c t="s" r="B120">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="C120">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D120">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E120">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4165,7 +4525,10 @@
         <v>10</v>
       </c>
       <c t="s" r="I120">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K120">
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -4173,16 +4536,16 @@
         <v>119</v>
       </c>
       <c t="s" r="B121">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="C121">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D121">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E121">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F121">
         <v>15</v>
@@ -4194,7 +4557,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I121">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K121">
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -4202,16 +4568,16 @@
         <v>120</v>
       </c>
       <c t="s" r="B122">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="C122">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4223,7 +4589,10 @@
         <v>18000000</v>
       </c>
       <c t="s" r="I122">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K122">
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -4231,16 +4600,16 @@
         <v>121</v>
       </c>
       <c t="s" r="B123">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="C123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123">
         <v>15</v>
@@ -4252,7 +4621,10 @@
         <v>45</v>
       </c>
       <c t="s" r="I123">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K123">
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -4260,16 +4632,16 @@
         <v>122</v>
       </c>
       <c t="s" r="B124">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="C124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="E124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4281,7 +4653,10 @@
         <v>45</v>
       </c>
       <c t="s" r="I124">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K124">
+        <v>13</v>
       </c>
     </row>
     <row r="125">
@@ -4289,16 +4664,16 @@
         <v>123</v>
       </c>
       <c t="s" r="B125">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="C125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125">
         <v>15</v>
@@ -4310,7 +4685,10 @@
         <v>1.5</v>
       </c>
       <c t="s" r="I125">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K125">
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -4318,16 +4696,16 @@
         <v>124</v>
       </c>
       <c t="s" r="B126">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="C126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F126">
         <v>15</v>
@@ -4339,7 +4717,10 @@
         <v>1.5</v>
       </c>
       <c t="s" r="I126">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K126">
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -4347,16 +4728,16 @@
         <v>125</v>
       </c>
       <c t="s" r="B127">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="C127">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E127">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F127">
         <v>15</v>
@@ -4368,7 +4749,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I127">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K127">
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -4376,16 +4760,16 @@
         <v>126</v>
       </c>
       <c t="s" r="B128">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="C128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4397,7 +4781,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I128">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K128">
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -4405,16 +4792,16 @@
         <v>127</v>
       </c>
       <c t="s" r="B129">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="C129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4426,7 +4813,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I129">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K129">
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -4434,16 +4824,16 @@
         <v>128</v>
       </c>
       <c t="s" r="B130">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="C130">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130">
         <v>15</v>
@@ -4455,7 +4845,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I130">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K130">
+        <v>13</v>
       </c>
     </row>
     <row r="131">
@@ -4463,16 +4856,16 @@
         <v>129</v>
       </c>
       <c t="s" r="B131">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="C131">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131">
         <v>15</v>
@@ -4484,7 +4877,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I131">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K131">
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -4492,16 +4888,16 @@
         <v>130</v>
       </c>
       <c t="s" r="B132">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="C132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D132">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E132">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4513,10 +4909,13 @@
         <v>3000</v>
       </c>
       <c t="s" r="I132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J132">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c t="s" r="K132">
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -4524,16 +4923,16 @@
         <v>131</v>
       </c>
       <c t="s" r="B133">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="C133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -4545,7 +4944,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I133">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K133">
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -4553,16 +4955,16 @@
         <v>132</v>
       </c>
       <c t="s" r="B134">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="C134">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D134">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E134">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4574,7 +4976,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I134">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K134">
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -4582,16 +4987,16 @@
         <v>133</v>
       </c>
       <c t="s" r="B135">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="C135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F135">
         <v>15</v>
@@ -4603,7 +5008,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I135">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K135">
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -4611,16 +5019,16 @@
         <v>134</v>
       </c>
       <c t="s" r="B136">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="C136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D136">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4632,7 +5040,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I136">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K136">
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -4640,16 +5051,16 @@
         <v>135</v>
       </c>
       <c t="s" r="B137">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="C137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4661,7 +5072,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I137">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K137">
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -4669,16 +5083,16 @@
         <v>136</v>
       </c>
       <c t="s" r="B138">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="C138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D138">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4690,7 +5104,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I138">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K138">
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -4698,16 +5115,16 @@
         <v>137</v>
       </c>
       <c t="s" r="B139">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="C139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F139">
         <v>15</v>
@@ -4719,10 +5136,13 @@
         <v>0</v>
       </c>
       <c t="s" r="I139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J139">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c t="s" r="K139">
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -4730,16 +5150,16 @@
         <v>138</v>
       </c>
       <c t="s" r="B140">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="C140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4751,10 +5171,13 @@
         <v>15</v>
       </c>
       <c t="s" r="I140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J140">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c t="s" r="K140">
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -4762,16 +5185,16 @@
         <v>139</v>
       </c>
       <c t="s" r="B141">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="C141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D141">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E141">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4783,7 +5206,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I141">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K141">
+        <v>13</v>
       </c>
     </row>
     <row r="142">
@@ -4791,16 +5217,16 @@
         <v>140</v>
       </c>
       <c t="s" r="B142">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="C142">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D142">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E142">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4812,7 +5238,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I142">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K142">
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -4820,16 +5249,16 @@
         <v>141</v>
       </c>
       <c t="s" r="B143">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="C143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4841,7 +5270,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I143">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K143">
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -4849,16 +5281,16 @@
         <v>142</v>
       </c>
       <c t="s" r="B144">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="C144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4870,7 +5302,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I144">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K144">
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -4878,16 +5313,16 @@
         <v>143</v>
       </c>
       <c t="s" r="B145">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="C145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4899,7 +5334,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I145">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K145">
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -4907,16 +5345,16 @@
         <v>144</v>
       </c>
       <c t="s" r="B146">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="C146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D146">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E146">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4928,10 +5366,13 @@
         <v>5</v>
       </c>
       <c t="s" r="I146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J146">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c t="s" r="K146">
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -4939,16 +5380,16 @@
         <v>145</v>
       </c>
       <c t="s" r="B147">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="C147">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D147">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="E147">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4960,7 +5401,10 @@
         <v>6000</v>
       </c>
       <c t="s" r="I147">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K147">
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -4968,16 +5412,16 @@
         <v>146</v>
       </c>
       <c t="s" r="B148">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="C148">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4989,10 +5433,13 @@
         <v>12.5</v>
       </c>
       <c t="s" r="I148">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J148">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c t="s" r="K148">
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -5000,16 +5447,16 @@
         <v>147</v>
       </c>
       <c t="s" r="B149">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="C149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5021,7 +5468,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I149">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K149">
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -5029,16 +5479,16 @@
         <v>148</v>
       </c>
       <c t="s" r="B150">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="C150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5050,7 +5500,10 @@
         <v>2.5</v>
       </c>
       <c t="s" r="I150">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K150">
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -5058,16 +5511,16 @@
         <v>149</v>
       </c>
       <c t="s" r="B151">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="C151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D151">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E151">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5079,7 +5532,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I151">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K151">
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -5087,16 +5543,16 @@
         <v>150</v>
       </c>
       <c t="s" r="B152">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="C152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D152">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E152">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5108,7 +5564,10 @@
         <v>0</v>
       </c>
       <c t="s" r="I152">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K152">
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -5116,16 +5575,16 @@
         <v>151</v>
       </c>
       <c t="s" r="B153">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="C153">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5137,10 +5596,13 @@
         <v>1</v>
       </c>
       <c t="s" r="I153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="J153">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c t="s" r="K153">
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -5148,16 +5610,16 @@
         <v>152</v>
       </c>
       <c t="s" r="B154">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="C154">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F154">
         <v>15</v>
@@ -5169,7 +5631,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I154">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K154">
+        <v>13</v>
       </c>
     </row>
     <row r="155">
@@ -5177,16 +5642,16 @@
         <v>153</v>
       </c>
       <c t="s" r="B155">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="C155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F155">
         <v>15</v>
@@ -5198,7 +5663,10 @@
         <v>15</v>
       </c>
       <c t="s" r="I155">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c t="s" r="K155">
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -5206,16 +5674,16 @@
         <v>154</v>
       </c>
       <c t="s" r="B156">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="C156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5227,10 +5695,13 @@
         <v>15</v>
       </c>
       <c t="s" r="I156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J156">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c t="s" r="K156">
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -5238,16 +5709,16 @@
         <v>155</v>
       </c>
       <c t="s" r="B157">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="C157">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D157">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E157">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F157">
         <v>15</v>
@@ -5259,7 +5730,10 @@
         <v>4</v>
       </c>
       <c t="s" r="I157">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K157">
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -5267,16 +5741,16 @@
         <v>156</v>
       </c>
       <c t="s" r="B158">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="C158">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D158">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E158">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -5288,7 +5762,10 @@
         <v>30</v>
       </c>
       <c t="s" r="I158">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K158">
+        <v>13</v>
       </c>
     </row>
     <row r="159">
@@ -5296,16 +5773,16 @@
         <v>157</v>
       </c>
       <c t="s" r="B159">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="C159">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="D159">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E159">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5317,7 +5794,10 @@
         <v>3.5</v>
       </c>
       <c t="s" r="I159">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c t="s" r="K159">
+        <v>13</v>
       </c>
     </row>
     <row r="160">
@@ -5325,16 +5805,16 @@
         <v>158</v>
       </c>
       <c t="s" r="B160">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="C160">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="D160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="E160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F160">
         <v>15</v>
@@ -5346,10 +5826,13 @@
         <v>30</v>
       </c>
       <c t="s" r="I160">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="J160">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c t="s" r="K160">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
